--- a/Stochastic_engine/CA_hydropower/CA_hydro_daily.xlsx
+++ b/Stochastic_engine/CA_hydropower/CA_hydro_daily.xlsx
@@ -390,10 +390,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>97075.5956768309</v>
+        <v>61773.19651201215</v>
       </c>
       <c r="C2" t="n">
-        <v>7767.268599858416</v>
+        <v>5725.250961830041</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -401,10 +401,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>97075.5956768309</v>
+        <v>61773.19651201215</v>
       </c>
       <c r="C3" t="n">
-        <v>7767.268599858416</v>
+        <v>5725.250961830041</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -412,10 +412,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>97075.5956768309</v>
+        <v>61773.19651201215</v>
       </c>
       <c r="C4" t="n">
-        <v>7767.268599858416</v>
+        <v>5725.250961830041</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -423,10 +423,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>97075.5956768309</v>
+        <v>61773.19651201215</v>
       </c>
       <c r="C5" t="n">
-        <v>7767.268599858416</v>
+        <v>5725.250961830041</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -434,10 +434,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>97075.5956768309</v>
+        <v>61773.19651201215</v>
       </c>
       <c r="C6" t="n">
-        <v>7767.268599858416</v>
+        <v>5725.250961830041</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -445,10 +445,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>97075.5956768309</v>
+        <v>61773.19651201215</v>
       </c>
       <c r="C7" t="n">
-        <v>7767.268599858416</v>
+        <v>5725.250961830041</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -456,10 +456,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>97075.5956768309</v>
+        <v>61773.19651201215</v>
       </c>
       <c r="C8" t="n">
-        <v>7767.268599858416</v>
+        <v>5725.250961830041</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -467,10 +467,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>98848.2233090216</v>
+        <v>42092.97981321897</v>
       </c>
       <c r="C9" t="n">
-        <v>19049.68285622163</v>
+        <v>4057.676339234333</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -478,10 +478,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>98848.2233090216</v>
+        <v>42092.97981321897</v>
       </c>
       <c r="C10" t="n">
-        <v>19049.68285622163</v>
+        <v>4057.676339234333</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -489,10 +489,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>98848.2233090216</v>
+        <v>42092.97981321897</v>
       </c>
       <c r="C11" t="n">
-        <v>19049.68285622163</v>
+        <v>4057.676339234333</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -500,10 +500,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>98848.2233090216</v>
+        <v>42092.97981321897</v>
       </c>
       <c r="C12" t="n">
-        <v>19049.68285622163</v>
+        <v>4057.676339234333</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -511,10 +511,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>98848.2233090216</v>
+        <v>42092.97981321897</v>
       </c>
       <c r="C13" t="n">
-        <v>19049.68285622163</v>
+        <v>4057.676339234333</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -522,10 +522,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>98848.2233090216</v>
+        <v>42092.97981321897</v>
       </c>
       <c r="C14" t="n">
-        <v>19049.68285622163</v>
+        <v>4057.676339234333</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -533,10 +533,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>98848.2233090216</v>
+        <v>42092.97981321897</v>
       </c>
       <c r="C15" t="n">
-        <v>19049.68285622163</v>
+        <v>4057.676339234333</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -544,10 +544,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>80872.67913684182</v>
+        <v>36270.96552554907</v>
       </c>
       <c r="C16" t="n">
-        <v>10419.94162204232</v>
+        <v>3852.054648421718</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -555,10 +555,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>80872.67913684182</v>
+        <v>36270.96552554907</v>
       </c>
       <c r="C17" t="n">
-        <v>10419.94162204232</v>
+        <v>3852.054648421718</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -566,10 +566,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>80872.67913684182</v>
+        <v>36270.96552554907</v>
       </c>
       <c r="C18" t="n">
-        <v>10419.94162204232</v>
+        <v>3852.054648421718</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -577,10 +577,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>80872.67913684182</v>
+        <v>36270.96552554907</v>
       </c>
       <c r="C19" t="n">
-        <v>10419.94162204232</v>
+        <v>3852.054648421718</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -588,10 +588,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>80872.67913684182</v>
+        <v>36270.96552554907</v>
       </c>
       <c r="C20" t="n">
-        <v>10419.94162204232</v>
+        <v>3852.054648421718</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -599,10 +599,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>80872.67913684182</v>
+        <v>36270.96552554907</v>
       </c>
       <c r="C21" t="n">
-        <v>10419.94162204232</v>
+        <v>3852.054648421718</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -610,10 +610,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>80872.67913684182</v>
+        <v>36270.96552554907</v>
       </c>
       <c r="C22" t="n">
-        <v>10419.94162204232</v>
+        <v>3852.054648421718</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -621,10 +621,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>96775.49118631489</v>
+        <v>51953.93360716134</v>
       </c>
       <c r="C23" t="n">
-        <v>11458.11756887901</v>
+        <v>3501.592618797099</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -632,10 +632,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>96775.49118631489</v>
+        <v>51953.93360716134</v>
       </c>
       <c r="C24" t="n">
-        <v>11458.11756887901</v>
+        <v>3501.592618797099</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -643,10 +643,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>96775.49118631489</v>
+        <v>51953.93360716134</v>
       </c>
       <c r="C25" t="n">
-        <v>11458.11756887901</v>
+        <v>3501.592618797099</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -654,10 +654,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>96775.49118631489</v>
+        <v>51953.93360716134</v>
       </c>
       <c r="C26" t="n">
-        <v>11458.11756887901</v>
+        <v>3501.592618797099</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -665,10 +665,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>96775.49118631489</v>
+        <v>51953.93360716134</v>
       </c>
       <c r="C27" t="n">
-        <v>11458.11756887901</v>
+        <v>3501.592618797099</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -676,10 +676,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>96775.49118631489</v>
+        <v>51953.93360716134</v>
       </c>
       <c r="C28" t="n">
-        <v>11458.11756887901</v>
+        <v>3501.592618797099</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -687,10 +687,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>96775.49118631489</v>
+        <v>51953.93360716134</v>
       </c>
       <c r="C29" t="n">
-        <v>11458.11756887901</v>
+        <v>3501.592618797099</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -698,10 +698,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>91519.89748448644</v>
+        <v>43877.08147164346</v>
       </c>
       <c r="C30" t="n">
-        <v>10133.09979555901</v>
+        <v>2833.108241471647</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -709,10 +709,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>91519.89748448644</v>
+        <v>43877.08147164346</v>
       </c>
       <c r="C31" t="n">
-        <v>10133.09979555901</v>
+        <v>2833.108241471647</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -720,10 +720,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>91519.89748448644</v>
+        <v>43877.08147164346</v>
       </c>
       <c r="C32" t="n">
-        <v>10133.09979555901</v>
+        <v>2833.108241471647</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -731,10 +731,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>91519.89748448644</v>
+        <v>43877.08147164346</v>
       </c>
       <c r="C33" t="n">
-        <v>10133.09979555901</v>
+        <v>2833.108241471647</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -742,10 +742,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>91519.89748448644</v>
+        <v>43877.08147164346</v>
       </c>
       <c r="C34" t="n">
-        <v>10133.09979555901</v>
+        <v>2833.108241471647</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -753,10 +753,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>91519.89748448644</v>
+        <v>43877.08147164346</v>
       </c>
       <c r="C35" t="n">
-        <v>10133.09979555901</v>
+        <v>2833.108241471647</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -764,10 +764,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>91519.89748448644</v>
+        <v>43877.08147164346</v>
       </c>
       <c r="C36" t="n">
-        <v>10133.09979555901</v>
+        <v>2833.108241471647</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -775,10 +775,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>99712.57064725261</v>
+        <v>36318.9516687217</v>
       </c>
       <c r="C37" t="n">
-        <v>8325.470305727134</v>
+        <v>3470.434011848627</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -786,10 +786,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>99712.57064725261</v>
+        <v>36318.9516687217</v>
       </c>
       <c r="C38" t="n">
-        <v>8325.470305727134</v>
+        <v>3470.434011848627</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -797,10 +797,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>99712.57064725261</v>
+        <v>36318.9516687217</v>
       </c>
       <c r="C39" t="n">
-        <v>8325.470305727134</v>
+        <v>3470.434011848627</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -808,10 +808,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>99712.57064725261</v>
+        <v>36318.9516687217</v>
       </c>
       <c r="C40" t="n">
-        <v>8325.470305727134</v>
+        <v>3470.434011848627</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -819,10 +819,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>99712.57064725261</v>
+        <v>36318.9516687217</v>
       </c>
       <c r="C41" t="n">
-        <v>8325.470305727134</v>
+        <v>3470.434011848627</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -830,10 +830,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>99712.57064725261</v>
+        <v>36318.9516687217</v>
       </c>
       <c r="C42" t="n">
-        <v>8325.470305727134</v>
+        <v>3470.434011848627</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -841,10 +841,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>99712.57064725261</v>
+        <v>36318.9516687217</v>
       </c>
       <c r="C43" t="n">
-        <v>8325.470305727134</v>
+        <v>3470.434011848627</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -852,10 +852,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>97856.48615419598</v>
+        <v>48499.63161486886</v>
       </c>
       <c r="C44" t="n">
-        <v>9150.527225209315</v>
+        <v>3120.032523842116</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -863,10 +863,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>97856.48615419598</v>
+        <v>48499.63161486886</v>
       </c>
       <c r="C45" t="n">
-        <v>9150.527225209315</v>
+        <v>3120.032523842116</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -874,10 +874,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>97856.48615419598</v>
+        <v>48499.63161486886</v>
       </c>
       <c r="C46" t="n">
-        <v>9150.527225209315</v>
+        <v>3120.032523842116</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -885,10 +885,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>97856.48615419598</v>
+        <v>48499.63161486886</v>
       </c>
       <c r="C47" t="n">
-        <v>9150.527225209315</v>
+        <v>3120.032523842116</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -896,10 +896,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>97856.48615419598</v>
+        <v>48499.63161486886</v>
       </c>
       <c r="C48" t="n">
-        <v>9150.527225209315</v>
+        <v>3120.032523842116</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -907,10 +907,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>97856.48615419598</v>
+        <v>48499.63161486886</v>
       </c>
       <c r="C49" t="n">
-        <v>9150.527225209315</v>
+        <v>3120.032523842116</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -918,10 +918,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>97856.48615419598</v>
+        <v>48499.63161486886</v>
       </c>
       <c r="C50" t="n">
-        <v>9150.527225209315</v>
+        <v>3120.032523842116</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -929,10 +929,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>98470.90563827248</v>
+        <v>40286.34182247664</v>
       </c>
       <c r="C51" t="n">
-        <v>9431.893828974027</v>
+        <v>4860.982678510931</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -940,10 +940,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>98470.90563827248</v>
+        <v>40286.34182247664</v>
       </c>
       <c r="C52" t="n">
-        <v>9431.893828974027</v>
+        <v>4860.982678510931</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -951,10 +951,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>98470.90563827248</v>
+        <v>40286.34182247664</v>
       </c>
       <c r="C53" t="n">
-        <v>9431.893828974027</v>
+        <v>4860.982678510931</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -962,10 +962,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>98470.90563827248</v>
+        <v>40286.34182247664</v>
       </c>
       <c r="C54" t="n">
-        <v>9431.893828974027</v>
+        <v>4860.982678510931</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -973,10 +973,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>98470.90563827248</v>
+        <v>40286.34182247664</v>
       </c>
       <c r="C55" t="n">
-        <v>9431.893828974027</v>
+        <v>4860.982678510931</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -984,10 +984,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>98470.90563827248</v>
+        <v>40286.34182247664</v>
       </c>
       <c r="C56" t="n">
-        <v>9431.893828974027</v>
+        <v>4860.982678510931</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -995,10 +995,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>98470.90563827248</v>
+        <v>40286.34182247664</v>
       </c>
       <c r="C57" t="n">
-        <v>9431.893828974027</v>
+        <v>4860.982678510931</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1006,10 +1006,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>87918.11453808851</v>
+        <v>52626.14081587551</v>
       </c>
       <c r="C58" t="n">
-        <v>9414.019333849677</v>
+        <v>8618.424391720479</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1017,10 +1017,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>87918.11453808851</v>
+        <v>52626.14081587551</v>
       </c>
       <c r="C59" t="n">
-        <v>9414.019333849677</v>
+        <v>8618.424391720479</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1028,10 +1028,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>87918.11453808851</v>
+        <v>52626.14081587551</v>
       </c>
       <c r="C60" t="n">
-        <v>9414.019333849677</v>
+        <v>8618.424391720479</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1039,10 +1039,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>87918.11453808851</v>
+        <v>52626.14081587551</v>
       </c>
       <c r="C61" t="n">
-        <v>9414.019333849677</v>
+        <v>8618.424391720479</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1050,10 +1050,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>87918.11453808851</v>
+        <v>52626.14081587551</v>
       </c>
       <c r="C62" t="n">
-        <v>9414.019333849677</v>
+        <v>8618.424391720479</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1061,10 +1061,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>87918.11453808851</v>
+        <v>52626.14081587551</v>
       </c>
       <c r="C63" t="n">
-        <v>9414.019333849677</v>
+        <v>8618.424391720479</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1072,10 +1072,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>87918.11453808851</v>
+        <v>52626.14081587551</v>
       </c>
       <c r="C64" t="n">
-        <v>9414.019333849677</v>
+        <v>8618.424391720479</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1083,10 +1083,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>102461.01333103</v>
+        <v>58655.44528891983</v>
       </c>
       <c r="C65" t="n">
-        <v>10355.49482398283</v>
+        <v>8984.546426186809</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1094,10 +1094,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>102461.01333103</v>
+        <v>58655.44528891983</v>
       </c>
       <c r="C66" t="n">
-        <v>10355.49482398283</v>
+        <v>8984.546426186809</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1105,10 +1105,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>102461.01333103</v>
+        <v>58655.44528891983</v>
       </c>
       <c r="C67" t="n">
-        <v>10355.49482398283</v>
+        <v>8984.546426186809</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1116,10 +1116,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>102461.01333103</v>
+        <v>58655.44528891983</v>
       </c>
       <c r="C68" t="n">
-        <v>10355.49482398283</v>
+        <v>8984.546426186809</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1127,10 +1127,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>102461.01333103</v>
+        <v>58655.44528891983</v>
       </c>
       <c r="C69" t="n">
-        <v>10355.49482398283</v>
+        <v>8984.546426186809</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1138,10 +1138,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>102461.01333103</v>
+        <v>58655.44528891983</v>
       </c>
       <c r="C70" t="n">
-        <v>10355.49482398283</v>
+        <v>8984.546426186809</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1149,10 +1149,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>102461.01333103</v>
+        <v>58655.44528891983</v>
       </c>
       <c r="C71" t="n">
-        <v>10355.49482398283</v>
+        <v>8984.546426186809</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1160,10 +1160,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>105810.1789369708</v>
+        <v>55252.47743399289</v>
       </c>
       <c r="C72" t="n">
-        <v>13128.87962050762</v>
+        <v>7155.003927956163</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1171,10 +1171,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>105810.1789369708</v>
+        <v>55252.47743399289</v>
       </c>
       <c r="C73" t="n">
-        <v>13128.87962050762</v>
+        <v>7155.003927956163</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1182,10 +1182,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>105810.1789369708</v>
+        <v>55252.47743399289</v>
       </c>
       <c r="C74" t="n">
-        <v>13128.87962050762</v>
+        <v>7155.003927956163</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1193,10 +1193,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>105810.1789369708</v>
+        <v>55252.47743399289</v>
       </c>
       <c r="C75" t="n">
-        <v>13128.87962050762</v>
+        <v>7155.003927956163</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1204,10 +1204,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>105810.1789369708</v>
+        <v>55252.47743399289</v>
       </c>
       <c r="C76" t="n">
-        <v>13128.87962050762</v>
+        <v>7155.003927956163</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1215,10 +1215,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>105810.1789369708</v>
+        <v>55252.47743399289</v>
       </c>
       <c r="C77" t="n">
-        <v>13128.87962050762</v>
+        <v>7155.003927956163</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1226,10 +1226,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>105810.1789369708</v>
+        <v>55252.47743399289</v>
       </c>
       <c r="C78" t="n">
-        <v>13128.87962050762</v>
+        <v>7155.003927956163</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1237,10 +1237,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>111146.1180938923</v>
+        <v>53414.29152008959</v>
       </c>
       <c r="C79" t="n">
-        <v>15417.03038438743</v>
+        <v>7031.459377585707</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1248,10 +1248,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>111146.1180938923</v>
+        <v>53414.29152008959</v>
       </c>
       <c r="C80" t="n">
-        <v>15417.03038438743</v>
+        <v>7031.459377585707</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1259,10 +1259,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>111146.1180938923</v>
+        <v>53414.29152008959</v>
       </c>
       <c r="C81" t="n">
-        <v>15417.03038438743</v>
+        <v>7031.459377585707</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1270,10 +1270,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>111146.1180938923</v>
+        <v>53414.29152008959</v>
       </c>
       <c r="C82" t="n">
-        <v>15417.03038438743</v>
+        <v>7031.459377585707</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1281,10 +1281,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>111146.1180938923</v>
+        <v>53414.29152008959</v>
       </c>
       <c r="C83" t="n">
-        <v>15417.03038438743</v>
+        <v>7031.459377585707</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1292,10 +1292,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>111146.1180938923</v>
+        <v>53414.29152008959</v>
       </c>
       <c r="C84" t="n">
-        <v>15417.03038438743</v>
+        <v>7031.459377585707</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1303,10 +1303,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>111146.1180938923</v>
+        <v>53414.29152008959</v>
       </c>
       <c r="C85" t="n">
-        <v>15417.03038438743</v>
+        <v>7031.459377585707</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1314,10 +1314,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>108088.8801042058</v>
+        <v>46415.74526784095</v>
       </c>
       <c r="C86" t="n">
-        <v>12176.50046297415</v>
+        <v>7647.968876798566</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1325,10 +1325,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>108088.8801042058</v>
+        <v>46415.74526784095</v>
       </c>
       <c r="C87" t="n">
-        <v>12176.50046297415</v>
+        <v>7647.968876798566</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1336,10 +1336,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>108088.8801042058</v>
+        <v>46415.74526784095</v>
       </c>
       <c r="C88" t="n">
-        <v>12176.50046297415</v>
+        <v>7647.968876798566</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1347,10 +1347,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>108088.8801042058</v>
+        <v>46415.74526784095</v>
       </c>
       <c r="C89" t="n">
-        <v>12176.50046297415</v>
+        <v>7647.968876798566</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1358,10 +1358,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>108088.8801042058</v>
+        <v>46415.74526784095</v>
       </c>
       <c r="C90" t="n">
-        <v>12176.50046297415</v>
+        <v>7647.968876798566</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1369,10 +1369,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>108088.8801042058</v>
+        <v>46415.74526784095</v>
       </c>
       <c r="C91" t="n">
-        <v>12176.50046297415</v>
+        <v>7647.968876798566</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1380,10 +1380,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>108088.8801042058</v>
+        <v>46415.74526784095</v>
       </c>
       <c r="C92" t="n">
-        <v>12176.50046297415</v>
+        <v>7647.968876798566</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1391,10 +1391,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>111452.8379177478</v>
+        <v>68611.10828425872</v>
       </c>
       <c r="C93" t="n">
-        <v>20131.39732201392</v>
+        <v>10033.6786198369</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1402,10 +1402,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>111452.8379177478</v>
+        <v>68611.10828425872</v>
       </c>
       <c r="C94" t="n">
-        <v>20131.39732201392</v>
+        <v>10033.6786198369</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1413,10 +1413,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>111452.8379177478</v>
+        <v>68611.10828425872</v>
       </c>
       <c r="C95" t="n">
-        <v>20131.39732201392</v>
+        <v>10033.6786198369</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1424,10 +1424,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>111452.8379177478</v>
+        <v>68611.10828425872</v>
       </c>
       <c r="C96" t="n">
-        <v>20131.39732201392</v>
+        <v>10033.6786198369</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1435,10 +1435,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>111452.8379177478</v>
+        <v>68611.10828425872</v>
       </c>
       <c r="C97" t="n">
-        <v>20131.39732201392</v>
+        <v>10033.6786198369</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1446,10 +1446,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>111452.8379177478</v>
+        <v>68611.10828425872</v>
       </c>
       <c r="C98" t="n">
-        <v>20131.39732201392</v>
+        <v>10033.6786198369</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1457,10 +1457,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>111452.8379177478</v>
+        <v>68611.10828425872</v>
       </c>
       <c r="C99" t="n">
-        <v>20131.39732201392</v>
+        <v>10033.6786198369</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1468,10 +1468,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>108051.5028573317</v>
+        <v>63932.60536931443</v>
       </c>
       <c r="C100" t="n">
-        <v>14445.53718344284</v>
+        <v>10409.15808748582</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1479,10 +1479,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>108051.5028573317</v>
+        <v>63932.60536931443</v>
       </c>
       <c r="C101" t="n">
-        <v>14445.53718344284</v>
+        <v>10409.15808748582</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1490,10 +1490,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>108051.5028573317</v>
+        <v>63932.60536931443</v>
       </c>
       <c r="C102" t="n">
-        <v>14445.53718344284</v>
+        <v>10409.15808748582</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1501,10 +1501,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>108051.5028573317</v>
+        <v>63932.60536931443</v>
       </c>
       <c r="C103" t="n">
-        <v>14445.53718344284</v>
+        <v>10409.15808748582</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1512,10 +1512,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>108051.5028573317</v>
+        <v>63932.60536931443</v>
       </c>
       <c r="C104" t="n">
-        <v>14445.53718344284</v>
+        <v>10409.15808748582</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1523,10 +1523,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>108051.5028573317</v>
+        <v>63932.60536931443</v>
       </c>
       <c r="C105" t="n">
-        <v>14445.53718344284</v>
+        <v>10409.15808748582</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1534,10 +1534,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>108051.5028573317</v>
+        <v>63932.60536931443</v>
       </c>
       <c r="C106" t="n">
-        <v>14445.53718344284</v>
+        <v>10409.15808748582</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1545,10 +1545,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>107889.4007533209</v>
+        <v>69400.2565131204</v>
       </c>
       <c r="C107" t="n">
-        <v>14274.10588371563</v>
+        <v>12117.99389567825</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1556,10 +1556,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>107889.4007533209</v>
+        <v>69400.2565131204</v>
       </c>
       <c r="C108" t="n">
-        <v>14274.10588371563</v>
+        <v>12117.99389567825</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1567,10 +1567,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>107889.4007533209</v>
+        <v>69400.2565131204</v>
       </c>
       <c r="C109" t="n">
-        <v>14274.10588371563</v>
+        <v>12117.99389567825</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1578,10 +1578,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>107889.4007533209</v>
+        <v>69400.2565131204</v>
       </c>
       <c r="C110" t="n">
-        <v>14274.10588371563</v>
+        <v>12117.99389567825</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1589,10 +1589,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>107889.4007533209</v>
+        <v>69400.2565131204</v>
       </c>
       <c r="C111" t="n">
-        <v>14274.10588371563</v>
+        <v>12117.99389567825</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1600,10 +1600,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>107889.4007533209</v>
+        <v>69400.2565131204</v>
       </c>
       <c r="C112" t="n">
-        <v>14274.10588371563</v>
+        <v>12117.99389567825</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1611,10 +1611,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>107889.4007533209</v>
+        <v>69400.2565131204</v>
       </c>
       <c r="C113" t="n">
-        <v>14274.10588371563</v>
+        <v>12117.99389567825</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1622,10 +1622,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>104711.5052237046</v>
+        <v>63165.31126945306</v>
       </c>
       <c r="C114" t="n">
-        <v>13927.53676045755</v>
+        <v>11252.66236980443</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1633,10 +1633,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>104711.5052237046</v>
+        <v>63165.31126945306</v>
       </c>
       <c r="C115" t="n">
-        <v>13927.53676045755</v>
+        <v>11252.66236980443</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1644,10 +1644,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>104711.5052237046</v>
+        <v>63165.31126945306</v>
       </c>
       <c r="C116" t="n">
-        <v>13927.53676045755</v>
+        <v>11252.66236980443</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1655,10 +1655,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>104711.5052237046</v>
+        <v>63165.31126945306</v>
       </c>
       <c r="C117" t="n">
-        <v>13927.53676045755</v>
+        <v>11252.66236980443</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1666,10 +1666,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>104711.5052237046</v>
+        <v>63165.31126945306</v>
       </c>
       <c r="C118" t="n">
-        <v>13927.53676045755</v>
+        <v>11252.66236980443</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1677,10 +1677,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>104711.5052237046</v>
+        <v>63165.31126945306</v>
       </c>
       <c r="C119" t="n">
-        <v>13927.53676045755</v>
+        <v>11252.66236980443</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1688,10 +1688,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>104711.5052237046</v>
+        <v>63165.31126945306</v>
       </c>
       <c r="C120" t="n">
-        <v>13927.53676045755</v>
+        <v>11252.66236980443</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1699,10 +1699,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>107419.3362823088</v>
+        <v>80305.80744203358</v>
       </c>
       <c r="C121" t="n">
-        <v>21491.13423653663</v>
+        <v>17628.57587505593</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1710,10 +1710,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>107419.3362823088</v>
+        <v>80305.80744203358</v>
       </c>
       <c r="C122" t="n">
-        <v>21491.13423653663</v>
+        <v>17628.57587505593</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1721,10 +1721,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>107419.3362823088</v>
+        <v>80305.80744203358</v>
       </c>
       <c r="C123" t="n">
-        <v>21491.13423653663</v>
+        <v>17628.57587505593</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1732,10 +1732,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>107419.3362823088</v>
+        <v>80305.80744203358</v>
       </c>
       <c r="C124" t="n">
-        <v>21491.13423653663</v>
+        <v>17628.57587505593</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1743,10 +1743,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>107419.3362823088</v>
+        <v>80305.80744203358</v>
       </c>
       <c r="C125" t="n">
-        <v>21491.13423653663</v>
+        <v>17628.57587505593</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1754,10 +1754,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>107419.3362823088</v>
+        <v>80305.80744203358</v>
       </c>
       <c r="C126" t="n">
-        <v>21491.13423653663</v>
+        <v>17628.57587505593</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1765,10 +1765,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>107419.3362823088</v>
+        <v>80305.80744203358</v>
       </c>
       <c r="C127" t="n">
-        <v>21491.13423653663</v>
+        <v>17628.57587505593</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1776,10 +1776,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>109042.4388920336</v>
+        <v>79920.03637602499</v>
       </c>
       <c r="C128" t="n">
-        <v>21456.99193943297</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1787,10 +1787,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>109042.4388920336</v>
+        <v>79920.03637602499</v>
       </c>
       <c r="C129" t="n">
-        <v>21456.99193943297</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1798,10 +1798,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>109042.4388920336</v>
+        <v>79920.03637602499</v>
       </c>
       <c r="C130" t="n">
-        <v>21456.99193943297</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1809,10 +1809,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>109042.4388920336</v>
+        <v>79920.03637602499</v>
       </c>
       <c r="C131" t="n">
-        <v>21456.99193943297</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1820,10 +1820,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>109042.4388920336</v>
+        <v>79920.03637602499</v>
       </c>
       <c r="C132" t="n">
-        <v>21456.99193943297</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1831,10 +1831,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>109042.4388920336</v>
+        <v>79920.03637602499</v>
       </c>
       <c r="C133" t="n">
-        <v>21456.99193943297</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1842,10 +1842,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>109042.4388920336</v>
+        <v>79920.03637602499</v>
       </c>
       <c r="C134" t="n">
-        <v>21456.99193943297</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1853,10 +1853,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>109708.079314965</v>
+        <v>76182.74414995396</v>
       </c>
       <c r="C135" t="n">
-        <v>21386.98950038289</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1864,10 +1864,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>109708.079314965</v>
+        <v>76182.74414995396</v>
       </c>
       <c r="C136" t="n">
-        <v>21386.98950038289</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1875,10 +1875,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>109708.079314965</v>
+        <v>76182.74414995396</v>
       </c>
       <c r="C137" t="n">
-        <v>21386.98950038289</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1886,10 +1886,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>109708.079314965</v>
+        <v>76182.74414995396</v>
       </c>
       <c r="C138" t="n">
-        <v>21386.98950038289</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1897,10 +1897,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>109708.079314965</v>
+        <v>76182.74414995396</v>
       </c>
       <c r="C139" t="n">
-        <v>21386.98950038289</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1908,10 +1908,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>109708.079314965</v>
+        <v>76182.74414995396</v>
       </c>
       <c r="C140" t="n">
-        <v>21386.98950038289</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1919,10 +1919,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>109708.079314965</v>
+        <v>76182.74414995396</v>
       </c>
       <c r="C141" t="n">
-        <v>21386.98950038289</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1930,10 +1930,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>108077.4952226285</v>
+        <v>74912.66448568024</v>
       </c>
       <c r="C142" t="n">
-        <v>21480.04728057695</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1941,10 +1941,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>108077.4952226285</v>
+        <v>74912.66448568024</v>
       </c>
       <c r="C143" t="n">
-        <v>21480.04728057695</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1952,10 +1952,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>108077.4952226285</v>
+        <v>74912.66448568024</v>
       </c>
       <c r="C144" t="n">
-        <v>21480.04728057695</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1963,10 +1963,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>108077.4952226285</v>
+        <v>74912.66448568024</v>
       </c>
       <c r="C145" t="n">
-        <v>21480.04728057695</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1974,10 +1974,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>108077.4952226285</v>
+        <v>74912.66448568024</v>
       </c>
       <c r="C146" t="n">
-        <v>21480.04728057695</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1985,10 +1985,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>108077.4952226285</v>
+        <v>74912.66448568024</v>
       </c>
       <c r="C147" t="n">
-        <v>21480.04728057695</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -1996,10 +1996,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>108077.4952226285</v>
+        <v>74912.66448568024</v>
       </c>
       <c r="C148" t="n">
-        <v>21480.04728057695</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2007,10 +2007,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>109276.4236764943</v>
+        <v>77254.22965275832</v>
       </c>
       <c r="C149" t="n">
-        <v>21427.95083545475</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2018,10 +2018,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>109276.4236764943</v>
+        <v>77254.22965275832</v>
       </c>
       <c r="C150" t="n">
-        <v>21427.95083545475</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2029,10 +2029,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>109276.4236764943</v>
+        <v>77254.22965275832</v>
       </c>
       <c r="C151" t="n">
-        <v>21427.95083545475</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2040,10 +2040,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>109276.4236764943</v>
+        <v>77254.22965275832</v>
       </c>
       <c r="C152" t="n">
-        <v>21427.95083545475</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2051,10 +2051,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>109276.4236764943</v>
+        <v>77254.22965275832</v>
       </c>
       <c r="C153" t="n">
-        <v>21427.95083545475</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2062,10 +2062,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>109276.4236764943</v>
+        <v>77254.22965275832</v>
       </c>
       <c r="C154" t="n">
-        <v>21427.95083545475</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2073,10 +2073,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>109276.4236764943</v>
+        <v>77254.22965275832</v>
       </c>
       <c r="C155" t="n">
-        <v>21427.95083545475</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2084,10 +2084,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>105902.5909278987</v>
+        <v>69373.4992593091</v>
       </c>
       <c r="C156" t="n">
-        <v>21382.03800366971</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2095,10 +2095,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>105902.5909278987</v>
+        <v>69373.4992593091</v>
       </c>
       <c r="C157" t="n">
-        <v>21382.03800366971</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2106,10 +2106,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>105902.5909278987</v>
+        <v>69373.4992593091</v>
       </c>
       <c r="C158" t="n">
-        <v>21382.03800366971</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2117,10 +2117,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>105902.5909278987</v>
+        <v>69373.4992593091</v>
       </c>
       <c r="C159" t="n">
-        <v>21382.03800366971</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2128,10 +2128,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>105902.5909278987</v>
+        <v>69373.4992593091</v>
       </c>
       <c r="C160" t="n">
-        <v>21382.03800366971</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2139,10 +2139,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>105902.5909278987</v>
+        <v>69373.4992593091</v>
       </c>
       <c r="C161" t="n">
-        <v>21382.03800366971</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2150,10 +2150,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>105902.5909278987</v>
+        <v>69373.4992593091</v>
       </c>
       <c r="C162" t="n">
-        <v>21382.03800366971</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2161,10 +2161,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>104666.7816277147</v>
+        <v>68707.0784180256</v>
       </c>
       <c r="C163" t="n">
-        <v>21289.97471013052</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2172,10 +2172,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>104666.7816277147</v>
+        <v>68707.0784180256</v>
       </c>
       <c r="C164" t="n">
-        <v>21289.97471013052</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2183,10 +2183,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>104666.7816277147</v>
+        <v>68707.0784180256</v>
       </c>
       <c r="C165" t="n">
-        <v>21289.97471013052</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2194,10 +2194,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>104666.7816277147</v>
+        <v>68707.0784180256</v>
       </c>
       <c r="C166" t="n">
-        <v>21289.97471013052</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2205,10 +2205,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>104666.7816277147</v>
+        <v>68707.0784180256</v>
       </c>
       <c r="C167" t="n">
-        <v>21289.97471013052</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2216,10 +2216,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>104666.7816277147</v>
+        <v>68707.0784180256</v>
       </c>
       <c r="C168" t="n">
-        <v>21289.97471013052</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2227,10 +2227,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>104666.7816277147</v>
+        <v>68707.0784180256</v>
       </c>
       <c r="C169" t="n">
-        <v>21289.97471013052</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2238,10 +2238,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>101770.3331670196</v>
+        <v>72101.90844844942</v>
       </c>
       <c r="C170" t="n">
-        <v>21281.43992097565</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2249,10 +2249,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>101770.3331670196</v>
+        <v>72101.90844844942</v>
       </c>
       <c r="C171" t="n">
-        <v>21281.43992097565</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2260,10 +2260,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>101770.3331670196</v>
+        <v>72101.90844844942</v>
       </c>
       <c r="C172" t="n">
-        <v>21281.43992097565</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2271,10 +2271,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>101770.3331670196</v>
+        <v>72101.90844844942</v>
       </c>
       <c r="C173" t="n">
-        <v>21281.43992097565</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2282,10 +2282,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>101770.3331670196</v>
+        <v>72101.90844844942</v>
       </c>
       <c r="C174" t="n">
-        <v>21281.43992097565</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2293,10 +2293,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>101770.3331670196</v>
+        <v>72101.90844844942</v>
       </c>
       <c r="C175" t="n">
-        <v>21281.43992097565</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2304,10 +2304,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>101770.3331670196</v>
+        <v>72101.90844844942</v>
       </c>
       <c r="C176" t="n">
-        <v>21281.43992097565</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2315,10 +2315,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>98101.36288335334</v>
+        <v>69242.16460512947</v>
       </c>
       <c r="C177" t="n">
-        <v>21266.04736121443</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2326,10 +2326,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>98101.36288335334</v>
+        <v>69242.16460512947</v>
       </c>
       <c r="C178" t="n">
-        <v>21266.04736121443</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2337,10 +2337,10 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>98101.36288335334</v>
+        <v>69242.16460512947</v>
       </c>
       <c r="C179" t="n">
-        <v>21266.04736121443</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2348,10 +2348,10 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>98101.36288335334</v>
+        <v>69242.16460512947</v>
       </c>
       <c r="C180" t="n">
-        <v>21266.04736121443</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2359,10 +2359,10 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>98101.36288335334</v>
+        <v>69242.16460512947</v>
       </c>
       <c r="C181" t="n">
-        <v>21266.04736121443</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2370,10 +2370,10 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>98101.36288335334</v>
+        <v>69242.16460512947</v>
       </c>
       <c r="C182" t="n">
-        <v>21266.04736121443</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2381,10 +2381,10 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>98101.36288335334</v>
+        <v>69242.16460512947</v>
       </c>
       <c r="C183" t="n">
-        <v>21266.04736121443</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2392,10 +2392,10 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>94922.17757107389</v>
+        <v>64780.75756138091</v>
       </c>
       <c r="C184" t="n">
-        <v>21348.18253745388</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2403,10 +2403,10 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>94922.17757107389</v>
+        <v>64780.75756138091</v>
       </c>
       <c r="C185" t="n">
-        <v>21348.18253745388</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2414,10 +2414,10 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>94922.17757107389</v>
+        <v>64780.75756138091</v>
       </c>
       <c r="C186" t="n">
-        <v>21348.18253745388</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2425,10 +2425,10 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>94922.17757107389</v>
+        <v>64780.75756138091</v>
       </c>
       <c r="C187" t="n">
-        <v>21348.18253745388</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2436,10 +2436,10 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>94922.17757107389</v>
+        <v>64780.75756138091</v>
       </c>
       <c r="C188" t="n">
-        <v>21348.18253745388</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2447,10 +2447,10 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>94922.17757107389</v>
+        <v>64780.75756138091</v>
       </c>
       <c r="C189" t="n">
-        <v>21348.18253745388</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2458,10 +2458,10 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>94922.17757107389</v>
+        <v>64780.75756138091</v>
       </c>
       <c r="C190" t="n">
-        <v>21348.18253745388</v>
+        <v>16839.7798854841</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2469,10 +2469,10 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>88045.96676891898</v>
+        <v>57035.05790615334</v>
       </c>
       <c r="C191" t="n">
-        <v>21263.69723222477</v>
+        <v>15600.14115076142</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2480,10 +2480,10 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>88045.96676891898</v>
+        <v>57035.05790615334</v>
       </c>
       <c r="C192" t="n">
-        <v>21263.69723222477</v>
+        <v>15600.14115076142</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2491,10 +2491,10 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>88045.96676891898</v>
+        <v>57035.05790615334</v>
       </c>
       <c r="C193" t="n">
-        <v>21263.69723222477</v>
+        <v>15600.14115076142</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2502,10 +2502,10 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>88045.96676891898</v>
+        <v>57035.05790615334</v>
       </c>
       <c r="C194" t="n">
-        <v>21263.69723222477</v>
+        <v>15600.14115076142</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2513,10 +2513,10 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>88045.96676891898</v>
+        <v>57035.05790615334</v>
       </c>
       <c r="C195" t="n">
-        <v>21263.69723222477</v>
+        <v>15600.14115076142</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2524,10 +2524,10 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>88045.96676891898</v>
+        <v>57035.05790615334</v>
       </c>
       <c r="C196" t="n">
-        <v>21263.69723222477</v>
+        <v>15600.14115076142</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2535,10 +2535,10 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>88045.96676891898</v>
+        <v>57035.05790615334</v>
       </c>
       <c r="C197" t="n">
-        <v>21263.69723222477</v>
+        <v>15600.14115076142</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2546,10 +2546,10 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>85150.99845075105</v>
+        <v>54967.22876494604</v>
       </c>
       <c r="C198" t="n">
-        <v>20199.34635954812</v>
+        <v>13267.14564388261</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2557,10 +2557,10 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>85150.99845075105</v>
+        <v>54967.22876494604</v>
       </c>
       <c r="C199" t="n">
-        <v>20199.34635954812</v>
+        <v>13267.14564388261</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2568,10 +2568,10 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>85150.99845075105</v>
+        <v>54967.22876494604</v>
       </c>
       <c r="C200" t="n">
-        <v>20199.34635954812</v>
+        <v>13267.14564388261</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2579,10 +2579,10 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>85150.99845075105</v>
+        <v>54967.22876494604</v>
       </c>
       <c r="C201" t="n">
-        <v>20199.34635954812</v>
+        <v>13267.14564388261</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2590,10 +2590,10 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>85150.99845075105</v>
+        <v>54967.22876494604</v>
       </c>
       <c r="C202" t="n">
-        <v>20199.34635954812</v>
+        <v>13267.14564388261</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2601,10 +2601,10 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>85150.99845075105</v>
+        <v>54967.22876494604</v>
       </c>
       <c r="C203" t="n">
-        <v>20199.34635954812</v>
+        <v>13267.14564388261</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2612,10 +2612,10 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>85150.99845075105</v>
+        <v>54967.22876494604</v>
       </c>
       <c r="C204" t="n">
-        <v>20199.34635954812</v>
+        <v>13267.14564388261</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2623,10 +2623,10 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>82606.50513072126</v>
+        <v>56144.54962217325</v>
       </c>
       <c r="C205" t="n">
-        <v>17678.29027517332</v>
+        <v>13275.84089731934</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2634,10 +2634,10 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>82606.50513072126</v>
+        <v>56144.54962217325</v>
       </c>
       <c r="C206" t="n">
-        <v>17678.29027517332</v>
+        <v>13275.84089731934</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2645,10 +2645,10 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>82606.50513072126</v>
+        <v>56144.54962217325</v>
       </c>
       <c r="C207" t="n">
-        <v>17678.29027517332</v>
+        <v>13275.84089731934</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2656,10 +2656,10 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>82606.50513072126</v>
+        <v>56144.54962217325</v>
       </c>
       <c r="C208" t="n">
-        <v>17678.29027517332</v>
+        <v>13275.84089731934</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2667,10 +2667,10 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>82606.50513072126</v>
+        <v>56144.54962217325</v>
       </c>
       <c r="C209" t="n">
-        <v>17678.29027517332</v>
+        <v>13275.84089731934</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2678,10 +2678,10 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>82606.50513072126</v>
+        <v>56144.54962217325</v>
       </c>
       <c r="C210" t="n">
-        <v>17678.29027517332</v>
+        <v>13275.84089731934</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2689,10 +2689,10 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>82606.50513072126</v>
+        <v>56144.54962217325</v>
       </c>
       <c r="C211" t="n">
-        <v>17678.29027517332</v>
+        <v>13275.84089731934</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2700,10 +2700,10 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>81858.83091944667</v>
+        <v>55320.45260683342</v>
       </c>
       <c r="C212" t="n">
-        <v>16659.95062404502</v>
+        <v>12926.74882211605</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2711,10 +2711,10 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>81858.83091944667</v>
+        <v>55320.45260683342</v>
       </c>
       <c r="C213" t="n">
-        <v>16659.95062404502</v>
+        <v>12926.74882211605</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2722,10 +2722,10 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>81858.83091944667</v>
+        <v>55320.45260683342</v>
       </c>
       <c r="C214" t="n">
-        <v>16659.95062404502</v>
+        <v>12926.74882211605</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2733,10 +2733,10 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>81858.83091944667</v>
+        <v>55320.45260683342</v>
       </c>
       <c r="C215" t="n">
-        <v>16659.95062404502</v>
+        <v>12926.74882211605</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2744,10 +2744,10 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>81858.83091944667</v>
+        <v>55320.45260683342</v>
       </c>
       <c r="C216" t="n">
-        <v>16659.95062404502</v>
+        <v>12926.74882211605</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2755,10 +2755,10 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>81858.83091944667</v>
+        <v>55320.45260683342</v>
       </c>
       <c r="C217" t="n">
-        <v>16659.95062404502</v>
+        <v>12926.74882211605</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2766,10 +2766,10 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>81858.83091944667</v>
+        <v>55320.45260683342</v>
       </c>
       <c r="C218" t="n">
-        <v>16659.95062404502</v>
+        <v>12926.74882211605</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2777,10 +2777,10 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>79075.88103898198</v>
+        <v>54090.63201217056</v>
       </c>
       <c r="C219" t="n">
-        <v>12699.16229632077</v>
+        <v>9583.903296595043</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2788,10 +2788,10 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>79075.88103898198</v>
+        <v>54090.63201217056</v>
       </c>
       <c r="C220" t="n">
-        <v>12699.16229632077</v>
+        <v>9583.903296595043</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2799,10 +2799,10 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>79075.88103898198</v>
+        <v>54090.63201217056</v>
       </c>
       <c r="C221" t="n">
-        <v>12699.16229632077</v>
+        <v>9583.903296595043</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2810,10 +2810,10 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>79075.88103898198</v>
+        <v>54090.63201217056</v>
       </c>
       <c r="C222" t="n">
-        <v>12699.16229632077</v>
+        <v>9583.903296595043</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2821,10 +2821,10 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>79075.88103898198</v>
+        <v>54090.63201217056</v>
       </c>
       <c r="C223" t="n">
-        <v>12699.16229632077</v>
+        <v>9583.903296595043</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2832,10 +2832,10 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>79075.88103898198</v>
+        <v>54090.63201217056</v>
       </c>
       <c r="C224" t="n">
-        <v>12699.16229632077</v>
+        <v>9583.903296595043</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2843,10 +2843,10 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>79075.88103898198</v>
+        <v>54090.63201217056</v>
       </c>
       <c r="C225" t="n">
-        <v>12699.16229632077</v>
+        <v>9583.903296595043</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2854,10 +2854,10 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>77657.75083219484</v>
+        <v>50569.35689222518</v>
       </c>
       <c r="C226" t="n">
-        <v>9510.831998941283</v>
+        <v>9461.142353198429</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2865,10 +2865,10 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>77657.75083219484</v>
+        <v>50569.35689222518</v>
       </c>
       <c r="C227" t="n">
-        <v>9510.831998941283</v>
+        <v>9461.142353198429</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2876,10 +2876,10 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>77657.75083219484</v>
+        <v>50569.35689222518</v>
       </c>
       <c r="C228" t="n">
-        <v>9510.831998941283</v>
+        <v>9461.142353198429</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2887,10 +2887,10 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>77657.75083219484</v>
+        <v>50569.35689222518</v>
       </c>
       <c r="C229" t="n">
-        <v>9510.831998941283</v>
+        <v>9461.142353198429</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2898,10 +2898,10 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>77657.75083219484</v>
+        <v>50569.35689222518</v>
       </c>
       <c r="C230" t="n">
-        <v>9510.831998941283</v>
+        <v>9461.142353198429</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2909,10 +2909,10 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>77657.75083219484</v>
+        <v>50569.35689222518</v>
       </c>
       <c r="C231" t="n">
-        <v>9510.831998941283</v>
+        <v>9461.142353198429</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2920,10 +2920,10 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>77657.75083219484</v>
+        <v>50569.35689222518</v>
       </c>
       <c r="C232" t="n">
-        <v>9510.831998941283</v>
+        <v>9461.142353198429</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2931,10 +2931,10 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>72086.23572569131</v>
+        <v>41187.8510362655</v>
       </c>
       <c r="C233" t="n">
-        <v>8875.671302792014</v>
+        <v>6158.128222459759</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2942,10 +2942,10 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>72086.23572569131</v>
+        <v>41187.8510362655</v>
       </c>
       <c r="C234" t="n">
-        <v>8875.671302792014</v>
+        <v>6158.128222459759</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2953,10 +2953,10 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>72086.23572569131</v>
+        <v>41187.8510362655</v>
       </c>
       <c r="C235" t="n">
-        <v>8875.671302792014</v>
+        <v>6158.128222459759</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2964,10 +2964,10 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>72086.23572569131</v>
+        <v>41187.8510362655</v>
       </c>
       <c r="C236" t="n">
-        <v>8875.671302792014</v>
+        <v>6158.128222459759</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2975,10 +2975,10 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>72086.23572569131</v>
+        <v>41187.8510362655</v>
       </c>
       <c r="C237" t="n">
-        <v>8875.671302792014</v>
+        <v>6158.128222459759</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -2986,10 +2986,10 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>72086.23572569131</v>
+        <v>41187.8510362655</v>
       </c>
       <c r="C238" t="n">
-        <v>8875.671302792014</v>
+        <v>6158.128222459759</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -2997,10 +2997,10 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>72086.23572569131</v>
+        <v>41187.8510362655</v>
       </c>
       <c r="C239" t="n">
-        <v>8875.671302792014</v>
+        <v>6158.128222459759</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3008,10 +3008,10 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>68294.42747236667</v>
+        <v>38551.67911486782</v>
       </c>
       <c r="C240" t="n">
-        <v>5955.378544098849</v>
+        <v>5938.806322564859</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3019,10 +3019,10 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>68294.42747236667</v>
+        <v>38551.67911486782</v>
       </c>
       <c r="C241" t="n">
-        <v>5955.378544098849</v>
+        <v>5938.806322564859</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3030,10 +3030,10 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>68294.42747236667</v>
+        <v>38551.67911486782</v>
       </c>
       <c r="C242" t="n">
-        <v>5955.378544098849</v>
+        <v>5938.806322564859</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3041,10 +3041,10 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>68294.42747236667</v>
+        <v>38551.67911486782</v>
       </c>
       <c r="C243" t="n">
-        <v>5955.378544098849</v>
+        <v>5938.806322564859</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3052,10 +3052,10 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>68294.42747236667</v>
+        <v>38551.67911486782</v>
       </c>
       <c r="C244" t="n">
-        <v>5955.378544098849</v>
+        <v>5938.806322564859</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3063,10 +3063,10 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>68294.42747236667</v>
+        <v>38551.67911486782</v>
       </c>
       <c r="C245" t="n">
-        <v>5955.378544098849</v>
+        <v>5938.806322564859</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3074,10 +3074,10 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>68294.42747236667</v>
+        <v>38551.67911486782</v>
       </c>
       <c r="C246" t="n">
-        <v>5955.378544098849</v>
+        <v>5938.806322564859</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3085,10 +3085,10 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>67776.06678112622</v>
+        <v>33885.17032228834</v>
       </c>
       <c r="C247" t="n">
-        <v>4676.306040970146</v>
+        <v>5533.331269614541</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3096,10 +3096,10 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>67776.06678112622</v>
+        <v>33885.17032228834</v>
       </c>
       <c r="C248" t="n">
-        <v>4676.306040970146</v>
+        <v>5533.331269614541</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3107,10 +3107,10 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>67776.06678112622</v>
+        <v>33885.17032228834</v>
       </c>
       <c r="C249" t="n">
-        <v>4676.306040970146</v>
+        <v>5533.331269614541</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3118,10 +3118,10 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>67776.06678112622</v>
+        <v>33885.17032228834</v>
       </c>
       <c r="C250" t="n">
-        <v>4676.306040970146</v>
+        <v>5533.331269614541</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3129,10 +3129,10 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>67776.06678112622</v>
+        <v>33885.17032228834</v>
       </c>
       <c r="C251" t="n">
-        <v>4676.306040970146</v>
+        <v>5533.331269614541</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3140,10 +3140,10 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>67776.06678112622</v>
+        <v>33885.17032228834</v>
       </c>
       <c r="C252" t="n">
-        <v>4676.306040970146</v>
+        <v>5533.331269614541</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3151,10 +3151,10 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>67776.06678112622</v>
+        <v>33885.17032228834</v>
       </c>
       <c r="C253" t="n">
-        <v>4676.306040970146</v>
+        <v>5533.331269614541</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3162,10 +3162,10 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>63139.76143142621</v>
+        <v>31529.00879042941</v>
       </c>
       <c r="C254" t="n">
-        <v>4953.816253570223</v>
+        <v>4538.55968132115</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3173,10 +3173,10 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>63139.76143142621</v>
+        <v>31529.00879042941</v>
       </c>
       <c r="C255" t="n">
-        <v>4953.816253570223</v>
+        <v>4538.55968132115</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3184,10 +3184,10 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>63139.76143142621</v>
+        <v>31529.00879042941</v>
       </c>
       <c r="C256" t="n">
-        <v>4953.816253570223</v>
+        <v>4538.55968132115</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3195,10 +3195,10 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>63139.76143142621</v>
+        <v>31529.00879042941</v>
       </c>
       <c r="C257" t="n">
-        <v>4953.816253570223</v>
+        <v>4538.55968132115</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3206,10 +3206,10 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>63139.76143142621</v>
+        <v>31529.00879042941</v>
       </c>
       <c r="C258" t="n">
-        <v>4953.816253570223</v>
+        <v>4538.55968132115</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3217,10 +3217,10 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>63139.76143142621</v>
+        <v>31529.00879042941</v>
       </c>
       <c r="C259" t="n">
-        <v>4953.816253570223</v>
+        <v>4538.55968132115</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3228,10 +3228,10 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>63139.76143142621</v>
+        <v>31529.00879042941</v>
       </c>
       <c r="C260" t="n">
-        <v>4953.816253570223</v>
+        <v>4538.55968132115</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3239,10 +3239,10 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>61248.12413598873</v>
+        <v>26741.21123559271</v>
       </c>
       <c r="C261" t="n">
-        <v>5528.496201707675</v>
+        <v>4262.757317332981</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3250,10 +3250,10 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>61248.12413598873</v>
+        <v>26741.21123559271</v>
       </c>
       <c r="C262" t="n">
-        <v>5528.496201707675</v>
+        <v>4262.757317332981</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3261,10 +3261,10 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>61248.12413598873</v>
+        <v>26741.21123559271</v>
       </c>
       <c r="C263" t="n">
-        <v>5528.496201707675</v>
+        <v>4262.757317332981</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3272,10 +3272,10 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>61248.12413598873</v>
+        <v>26741.21123559271</v>
       </c>
       <c r="C264" t="n">
-        <v>5528.496201707675</v>
+        <v>4262.757317332981</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3283,10 +3283,10 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>61248.12413598873</v>
+        <v>26741.21123559271</v>
       </c>
       <c r="C265" t="n">
-        <v>5528.496201707675</v>
+        <v>4262.757317332981</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3294,10 +3294,10 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>61248.12413598873</v>
+        <v>26741.21123559271</v>
       </c>
       <c r="C266" t="n">
-        <v>5528.496201707675</v>
+        <v>4262.757317332981</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3305,10 +3305,10 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>61248.12413598873</v>
+        <v>26741.21123559271</v>
       </c>
       <c r="C267" t="n">
-        <v>5528.496201707675</v>
+        <v>4262.757317332981</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3316,10 +3316,10 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>57490.66739632106</v>
+        <v>21902.58326031251</v>
       </c>
       <c r="C268" t="n">
-        <v>4128.554753737329</v>
+        <v>4292.803614887684</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3327,10 +3327,10 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>57490.66739632106</v>
+        <v>21902.58326031251</v>
       </c>
       <c r="C269" t="n">
-        <v>4128.554753737329</v>
+        <v>4292.803614887684</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3338,10 +3338,10 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>57490.66739632106</v>
+        <v>21902.58326031251</v>
       </c>
       <c r="C270" t="n">
-        <v>4128.554753737329</v>
+        <v>4292.803614887684</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3349,10 +3349,10 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>57490.66739632106</v>
+        <v>21902.58326031251</v>
       </c>
       <c r="C271" t="n">
-        <v>4128.554753737329</v>
+        <v>4292.803614887684</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3360,10 +3360,10 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>57490.66739632106</v>
+        <v>21902.58326031251</v>
       </c>
       <c r="C272" t="n">
-        <v>4128.554753737329</v>
+        <v>4292.803614887684</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3371,10 +3371,10 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>57490.66739632106</v>
+        <v>21902.58326031251</v>
       </c>
       <c r="C273" t="n">
-        <v>4128.554753737329</v>
+        <v>4292.803614887684</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3382,10 +3382,10 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>57490.66739632106</v>
+        <v>21902.58326031251</v>
       </c>
       <c r="C274" t="n">
-        <v>4128.554753737329</v>
+        <v>4292.803614887684</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3393,10 +3393,10 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>59053.36113855567</v>
+        <v>20132.59378479558</v>
       </c>
       <c r="C275" t="n">
-        <v>5876.512275285093</v>
+        <v>4320.934305952284</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3404,10 +3404,10 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>59053.36113855567</v>
+        <v>20132.59378479558</v>
       </c>
       <c r="C276" t="n">
-        <v>5876.512275285093</v>
+        <v>4320.934305952284</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3415,10 +3415,10 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>59053.36113855567</v>
+        <v>20132.59378479558</v>
       </c>
       <c r="C277" t="n">
-        <v>5876.512275285093</v>
+        <v>4320.934305952284</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3426,10 +3426,10 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>59053.36113855567</v>
+        <v>20132.59378479558</v>
       </c>
       <c r="C278" t="n">
-        <v>5876.512275285093</v>
+        <v>4320.934305952284</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3437,10 +3437,10 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>59053.36113855567</v>
+        <v>20132.59378479558</v>
       </c>
       <c r="C279" t="n">
-        <v>5876.512275285093</v>
+        <v>4320.934305952284</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3448,10 +3448,10 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>59053.36113855567</v>
+        <v>20132.59378479558</v>
       </c>
       <c r="C280" t="n">
-        <v>5876.512275285093</v>
+        <v>4320.934305952284</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3459,10 +3459,10 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>59053.36113855567</v>
+        <v>20132.59378479558</v>
       </c>
       <c r="C281" t="n">
-        <v>5876.512275285093</v>
+        <v>4320.934305952284</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3470,10 +3470,10 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>54553.60952953267</v>
+        <v>18622.06070231139</v>
       </c>
       <c r="C282" t="n">
-        <v>4551.091990439885</v>
+        <v>3188.053973605455</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3481,10 +3481,10 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>54553.60952953267</v>
+        <v>18622.06070231139</v>
       </c>
       <c r="C283" t="n">
-        <v>4551.091990439885</v>
+        <v>3188.053973605455</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3492,10 +3492,10 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>54553.60952953267</v>
+        <v>18622.06070231139</v>
       </c>
       <c r="C284" t="n">
-        <v>4551.091990439885</v>
+        <v>3188.053973605455</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3503,10 +3503,10 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>54553.60952953267</v>
+        <v>18622.06070231139</v>
       </c>
       <c r="C285" t="n">
-        <v>4551.091990439885</v>
+        <v>3188.053973605455</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3514,10 +3514,10 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>54553.60952953267</v>
+        <v>18622.06070231139</v>
       </c>
       <c r="C286" t="n">
-        <v>4551.091990439885</v>
+        <v>3188.053973605455</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3525,10 +3525,10 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>54553.60952953267</v>
+        <v>18622.06070231139</v>
       </c>
       <c r="C287" t="n">
-        <v>4551.091990439885</v>
+        <v>3188.053973605455</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3536,10 +3536,10 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>54553.60952953267</v>
+        <v>18622.06070231139</v>
       </c>
       <c r="C288" t="n">
-        <v>4551.091990439885</v>
+        <v>3188.053973605455</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3547,10 +3547,10 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>48674.56290750622</v>
+        <v>18464.36695157775</v>
       </c>
       <c r="C289" t="n">
-        <v>4529.81846235011</v>
+        <v>1348.50646956183</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3558,10 +3558,10 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>48674.56290750622</v>
+        <v>18464.36695157775</v>
       </c>
       <c r="C290" t="n">
-        <v>4529.81846235011</v>
+        <v>1348.50646956183</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3569,10 +3569,10 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>48674.56290750622</v>
+        <v>18464.36695157775</v>
       </c>
       <c r="C291" t="n">
-        <v>4529.81846235011</v>
+        <v>1348.50646956183</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3580,10 +3580,10 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>48674.56290750622</v>
+        <v>18464.36695157775</v>
       </c>
       <c r="C292" t="n">
-        <v>4529.81846235011</v>
+        <v>1348.50646956183</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3591,10 +3591,10 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>48674.56290750622</v>
+        <v>18464.36695157775</v>
       </c>
       <c r="C293" t="n">
-        <v>4529.81846235011</v>
+        <v>1348.50646956183</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3602,10 +3602,10 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>48674.56290750622</v>
+        <v>18464.36695157775</v>
       </c>
       <c r="C294" t="n">
-        <v>4529.81846235011</v>
+        <v>1348.50646956183</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3613,10 +3613,10 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>48674.56290750622</v>
+        <v>18464.36695157775</v>
       </c>
       <c r="C295" t="n">
-        <v>4529.81846235011</v>
+        <v>1348.50646956183</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3624,10 +3624,10 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>50871.86795459601</v>
+        <v>17506.80909525552</v>
       </c>
       <c r="C296" t="n">
-        <v>3051.36155056468</v>
+        <v>1454.542924912017</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3635,10 +3635,10 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>50871.86795459601</v>
+        <v>17506.80909525552</v>
       </c>
       <c r="C297" t="n">
-        <v>3051.36155056468</v>
+        <v>1454.542924912017</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3646,10 +3646,10 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>50871.86795459601</v>
+        <v>17506.80909525552</v>
       </c>
       <c r="C298" t="n">
-        <v>3051.36155056468</v>
+        <v>1454.542924912017</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3657,10 +3657,10 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>50871.86795459601</v>
+        <v>17506.80909525552</v>
       </c>
       <c r="C299" t="n">
-        <v>3051.36155056468</v>
+        <v>1454.542924912017</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3668,10 +3668,10 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>50871.86795459601</v>
+        <v>17506.80909525552</v>
       </c>
       <c r="C300" t="n">
-        <v>3051.36155056468</v>
+        <v>1454.542924912017</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3679,10 +3679,10 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>50871.86795459601</v>
+        <v>17506.80909525552</v>
       </c>
       <c r="C301" t="n">
-        <v>3051.36155056468</v>
+        <v>1454.542924912017</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3690,10 +3690,10 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>50871.86795459601</v>
+        <v>17506.80909525552</v>
       </c>
       <c r="C302" t="n">
-        <v>3051.36155056468</v>
+        <v>1454.542924912017</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3701,10 +3701,10 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>47998.91132838221</v>
+        <v>19217.06445832673</v>
       </c>
       <c r="C303" t="n">
-        <v>3139.283837446611</v>
+        <v>587.415797946788</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3712,10 +3712,10 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>47998.91132838221</v>
+        <v>19217.06445832673</v>
       </c>
       <c r="C304" t="n">
-        <v>3139.283837446611</v>
+        <v>587.415797946788</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3723,10 +3723,10 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>47998.91132838221</v>
+        <v>19217.06445832673</v>
       </c>
       <c r="C305" t="n">
-        <v>3139.283837446611</v>
+        <v>587.415797946788</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3734,10 +3734,10 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>47998.91132838221</v>
+        <v>19217.06445832673</v>
       </c>
       <c r="C306" t="n">
-        <v>3139.283837446611</v>
+        <v>587.415797946788</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3745,10 +3745,10 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>47998.91132838221</v>
+        <v>19217.06445832673</v>
       </c>
       <c r="C307" t="n">
-        <v>3139.283837446611</v>
+        <v>587.415797946788</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3756,10 +3756,10 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>47998.91132838221</v>
+        <v>19217.06445832673</v>
       </c>
       <c r="C308" t="n">
-        <v>3139.283837446611</v>
+        <v>587.415797946788</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3767,10 +3767,10 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>47998.91132838221</v>
+        <v>19217.06445832673</v>
       </c>
       <c r="C309" t="n">
-        <v>3139.283837446611</v>
+        <v>587.415797946788</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3778,10 +3778,10 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>53196.60144845438</v>
+        <v>20613.63280705731</v>
       </c>
       <c r="C310" t="n">
-        <v>4225.978990980192</v>
+        <v>838.6718093974872</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3789,10 +3789,10 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>53196.60144845438</v>
+        <v>20613.63280705731</v>
       </c>
       <c r="C311" t="n">
-        <v>4225.978990980192</v>
+        <v>838.6718093974872</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3800,10 +3800,10 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>53196.60144845438</v>
+        <v>20613.63280705731</v>
       </c>
       <c r="C312" t="n">
-        <v>4225.978990980192</v>
+        <v>838.6718093974872</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3811,10 +3811,10 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>53196.60144845438</v>
+        <v>20613.63280705731</v>
       </c>
       <c r="C313" t="n">
-        <v>4225.978990980192</v>
+        <v>838.6718093974872</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3822,10 +3822,10 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>53196.60144845438</v>
+        <v>20613.63280705731</v>
       </c>
       <c r="C314" t="n">
-        <v>4225.978990980192</v>
+        <v>838.6718093974872</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3833,10 +3833,10 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>53196.60144845438</v>
+        <v>20613.63280705731</v>
       </c>
       <c r="C315" t="n">
-        <v>4225.978990980192</v>
+        <v>838.6718093974872</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3844,10 +3844,10 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>53196.60144845438</v>
+        <v>20613.63280705731</v>
       </c>
       <c r="C316" t="n">
-        <v>4225.978990980192</v>
+        <v>838.6718093974872</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3855,10 +3855,10 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>52834.34786484845</v>
+        <v>19757.06863237245</v>
       </c>
       <c r="C317" t="n">
-        <v>3531.845690461854</v>
+        <v>1045.937334048867</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3866,10 +3866,10 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>52834.34786484845</v>
+        <v>19757.06863237245</v>
       </c>
       <c r="C318" t="n">
-        <v>3531.845690461854</v>
+        <v>1045.937334048867</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3877,10 +3877,10 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>52834.34786484845</v>
+        <v>19757.06863237245</v>
       </c>
       <c r="C319" t="n">
-        <v>3531.845690461854</v>
+        <v>1045.937334048867</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3888,10 +3888,10 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>52834.34786484845</v>
+        <v>19757.06863237245</v>
       </c>
       <c r="C320" t="n">
-        <v>3531.845690461854</v>
+        <v>1045.937334048867</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3899,10 +3899,10 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>52834.34786484845</v>
+        <v>19757.06863237245</v>
       </c>
       <c r="C321" t="n">
-        <v>3531.845690461854</v>
+        <v>1045.937334048867</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3910,10 +3910,10 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>52834.34786484845</v>
+        <v>19757.06863237245</v>
       </c>
       <c r="C322" t="n">
-        <v>3531.845690461854</v>
+        <v>1045.937334048867</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3921,10 +3921,10 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>52834.34786484845</v>
+        <v>19757.06863237245</v>
       </c>
       <c r="C323" t="n">
-        <v>3531.845690461854</v>
+        <v>1045.937334048867</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3932,10 +3932,10 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>79659.65633998592</v>
+        <v>25304.90100667929</v>
       </c>
       <c r="C324" t="n">
-        <v>3770.507211659188</v>
+        <v>930.0413967455812</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3943,10 +3943,10 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>79659.65633998592</v>
+        <v>25304.90100667929</v>
       </c>
       <c r="C325" t="n">
-        <v>3770.507211659188</v>
+        <v>930.0413967455812</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3954,10 +3954,10 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>79659.65633998592</v>
+        <v>25304.90100667929</v>
       </c>
       <c r="C326" t="n">
-        <v>3770.507211659188</v>
+        <v>930.0413967455812</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3965,10 +3965,10 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>79659.65633998592</v>
+        <v>25304.90100667929</v>
       </c>
       <c r="C327" t="n">
-        <v>3770.507211659188</v>
+        <v>930.0413967455812</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -3976,10 +3976,10 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>79659.65633998592</v>
+        <v>25304.90100667929</v>
       </c>
       <c r="C328" t="n">
-        <v>3770.507211659188</v>
+        <v>930.0413967455812</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -3987,10 +3987,10 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>79659.65633998592</v>
+        <v>25304.90100667929</v>
       </c>
       <c r="C329" t="n">
-        <v>3770.507211659188</v>
+        <v>930.0413967455812</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -3998,10 +3998,10 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>79659.65633998592</v>
+        <v>25304.90100667929</v>
       </c>
       <c r="C330" t="n">
-        <v>3770.507211659188</v>
+        <v>930.0413967455812</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4009,10 +4009,10 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>73131.84533063207</v>
+        <v>36072.79183483832</v>
       </c>
       <c r="C331" t="n">
-        <v>3464.479885102703</v>
+        <v>1757.204127441299</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4020,10 +4020,10 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>73131.84533063207</v>
+        <v>36072.79183483832</v>
       </c>
       <c r="C332" t="n">
-        <v>3464.479885102703</v>
+        <v>1757.204127441299</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4031,10 +4031,10 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>73131.84533063207</v>
+        <v>36072.79183483832</v>
       </c>
       <c r="C333" t="n">
-        <v>3464.479885102703</v>
+        <v>1757.204127441299</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4042,10 +4042,10 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>73131.84533063207</v>
+        <v>36072.79183483832</v>
       </c>
       <c r="C334" t="n">
-        <v>3464.479885102703</v>
+        <v>1757.204127441299</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4053,10 +4053,10 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>73131.84533063207</v>
+        <v>36072.79183483832</v>
       </c>
       <c r="C335" t="n">
-        <v>3464.479885102703</v>
+        <v>1757.204127441299</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4064,10 +4064,10 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>73131.84533063207</v>
+        <v>36072.79183483832</v>
       </c>
       <c r="C336" t="n">
-        <v>3464.479885102703</v>
+        <v>1757.204127441299</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4075,10 +4075,10 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>73131.84533063207</v>
+        <v>36072.79183483832</v>
       </c>
       <c r="C337" t="n">
-        <v>3464.479885102703</v>
+        <v>1757.204127441299</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4086,10 +4086,10 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>44795.11816754764</v>
+        <v>40107.2529147979</v>
       </c>
       <c r="C338" t="n">
-        <v>2646.468245370127</v>
+        <v>2916.422400902038</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4097,10 +4097,10 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>44795.11816754764</v>
+        <v>40107.2529147979</v>
       </c>
       <c r="C339" t="n">
-        <v>2646.468245370127</v>
+        <v>2916.422400902038</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4108,10 +4108,10 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>44795.11816754764</v>
+        <v>40107.2529147979</v>
       </c>
       <c r="C340" t="n">
-        <v>2646.468245370127</v>
+        <v>2916.422400902038</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4119,10 +4119,10 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>44795.11816754764</v>
+        <v>40107.2529147979</v>
       </c>
       <c r="C341" t="n">
-        <v>2646.468245370127</v>
+        <v>2916.422400902038</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4130,10 +4130,10 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>44795.11816754764</v>
+        <v>40107.2529147979</v>
       </c>
       <c r="C342" t="n">
-        <v>2646.468245370127</v>
+        <v>2916.422400902038</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4141,10 +4141,10 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>44795.11816754764</v>
+        <v>40107.2529147979</v>
       </c>
       <c r="C343" t="n">
-        <v>2646.468245370127</v>
+        <v>2916.422400902038</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4152,10 +4152,10 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>44795.11816754764</v>
+        <v>40107.2529147979</v>
       </c>
       <c r="C344" t="n">
-        <v>2646.468245370127</v>
+        <v>2916.422400902038</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4163,10 +4163,10 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>44739.45880226162</v>
+        <v>48588.33958350012</v>
       </c>
       <c r="C345" t="n">
-        <v>2517.851745107087</v>
+        <v>3071.759666317059</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4174,10 +4174,10 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>44739.45880226162</v>
+        <v>48588.33958350012</v>
       </c>
       <c r="C346" t="n">
-        <v>2517.851745107087</v>
+        <v>3071.759666317059</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4185,10 +4185,10 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>44739.45880226162</v>
+        <v>48588.33958350012</v>
       </c>
       <c r="C347" t="n">
-        <v>2517.851745107087</v>
+        <v>3071.759666317059</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4196,10 +4196,10 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>44739.45880226162</v>
+        <v>48588.33958350012</v>
       </c>
       <c r="C348" t="n">
-        <v>2517.851745107087</v>
+        <v>3071.759666317059</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4207,10 +4207,10 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>44739.45880226162</v>
+        <v>48588.33958350012</v>
       </c>
       <c r="C349" t="n">
-        <v>2517.851745107087</v>
+        <v>3071.759666317059</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4218,10 +4218,10 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>44739.45880226162</v>
+        <v>48588.33958350012</v>
       </c>
       <c r="C350" t="n">
-        <v>2517.851745107087</v>
+        <v>3071.759666317059</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4229,10 +4229,10 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>44739.45880226162</v>
+        <v>48588.33958350012</v>
       </c>
       <c r="C351" t="n">
-        <v>2517.851745107087</v>
+        <v>3071.759666317059</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4240,10 +4240,10 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>33238.99410235482</v>
+        <v>41671.32687929953</v>
       </c>
       <c r="C352" t="n">
-        <v>2594.785528627625</v>
+        <v>3618.173668156346</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4251,10 +4251,10 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>33238.99410235482</v>
+        <v>41671.32687929953</v>
       </c>
       <c r="C353" t="n">
-        <v>2594.785528627625</v>
+        <v>3618.173668156346</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4262,10 +4262,10 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>33238.99410235482</v>
+        <v>41671.32687929953</v>
       </c>
       <c r="C354" t="n">
-        <v>2594.785528627625</v>
+        <v>3618.173668156346</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4273,10 +4273,10 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>33238.99410235482</v>
+        <v>41671.32687929953</v>
       </c>
       <c r="C355" t="n">
-        <v>2594.785528627625</v>
+        <v>3618.173668156346</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4284,10 +4284,10 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>33238.99410235482</v>
+        <v>41671.32687929953</v>
       </c>
       <c r="C356" t="n">
-        <v>2594.785528627625</v>
+        <v>3618.173668156346</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4295,10 +4295,10 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>33238.99410235482</v>
+        <v>41671.32687929953</v>
       </c>
       <c r="C357" t="n">
-        <v>2594.785528627625</v>
+        <v>3618.173668156346</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4306,10 +4306,10 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>33238.99410235482</v>
+        <v>41671.32687929953</v>
       </c>
       <c r="C358" t="n">
-        <v>2594.785528627625</v>
+        <v>3618.173668156346</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4317,10 +4317,10 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>45947.56038468779</v>
+        <v>52637.59566540962</v>
       </c>
       <c r="C359" t="n">
-        <v>2938.338748976776</v>
+        <v>2701.72865394763</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4328,10 +4328,10 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>45947.56038468779</v>
+        <v>52637.59566540962</v>
       </c>
       <c r="C360" t="n">
-        <v>2938.338748976776</v>
+        <v>2701.72865394763</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4339,10 +4339,10 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>45947.56038468779</v>
+        <v>52637.59566540962</v>
       </c>
       <c r="C361" t="n">
-        <v>2938.338748976776</v>
+        <v>2701.72865394763</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4350,10 +4350,10 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>45947.56038468779</v>
+        <v>52637.59566540962</v>
       </c>
       <c r="C362" t="n">
-        <v>2938.338748976776</v>
+        <v>2701.72865394763</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4361,10 +4361,10 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>45947.56038468779</v>
+        <v>52637.59566540962</v>
       </c>
       <c r="C363" t="n">
-        <v>2938.338748976776</v>
+        <v>2701.72865394763</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4372,10 +4372,10 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>45947.56038468779</v>
+        <v>52637.59566540962</v>
       </c>
       <c r="C364" t="n">
-        <v>2938.338748976776</v>
+        <v>2701.72865394763</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4383,10 +4383,10 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>45947.56038468779</v>
+        <v>52637.59566540962</v>
       </c>
       <c r="C365" t="n">
-        <v>2938.338748976776</v>
+        <v>2701.72865394763</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4394,10 +4394,10 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>45947.56038468779</v>
+        <v>52637.59566540962</v>
       </c>
       <c r="C366" t="n">
-        <v>2938.338748976776</v>
+        <v>2701.72865394763</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4405,10 +4405,10 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>36991.62573462653</v>
+        <v>43566.94212662025</v>
       </c>
       <c r="C367" t="n">
-        <v>867.9826183155623</v>
+        <v>2786.675713336226</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4416,10 +4416,10 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>36991.62573462653</v>
+        <v>43566.94212662025</v>
       </c>
       <c r="C368" t="n">
-        <v>867.9826183155623</v>
+        <v>2786.675713336226</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4427,10 +4427,10 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>36991.62573462653</v>
+        <v>43566.94212662025</v>
       </c>
       <c r="C369" t="n">
-        <v>867.9826183155623</v>
+        <v>2786.675713336226</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4438,10 +4438,10 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>36991.62573462653</v>
+        <v>43566.94212662025</v>
       </c>
       <c r="C370" t="n">
-        <v>867.9826183155623</v>
+        <v>2786.675713336226</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4449,10 +4449,10 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>36991.62573462653</v>
+        <v>43566.94212662025</v>
       </c>
       <c r="C371" t="n">
-        <v>867.9826183155623</v>
+        <v>2786.675713336226</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4460,10 +4460,10 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>36991.62573462653</v>
+        <v>43566.94212662025</v>
       </c>
       <c r="C372" t="n">
-        <v>867.9826183155623</v>
+        <v>2786.675713336226</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4471,10 +4471,10 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>36991.62573462653</v>
+        <v>43566.94212662025</v>
       </c>
       <c r="C373" t="n">
-        <v>867.9826183155623</v>
+        <v>2786.675713336226</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4482,10 +4482,10 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>26900.09538109199</v>
+        <v>33978.22379198604</v>
       </c>
       <c r="C374" t="n">
-        <v>1064.802354964385</v>
+        <v>3112.518984760984</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4493,10 +4493,10 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>26900.09538109199</v>
+        <v>33978.22379198604</v>
       </c>
       <c r="C375" t="n">
-        <v>1064.802354964385</v>
+        <v>3112.518984760984</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4504,10 +4504,10 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>26900.09538109199</v>
+        <v>33978.22379198604</v>
       </c>
       <c r="C376" t="n">
-        <v>1064.802354964385</v>
+        <v>3112.518984760984</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4515,10 +4515,10 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>26900.09538109199</v>
+        <v>33978.22379198604</v>
       </c>
       <c r="C377" t="n">
-        <v>1064.802354964385</v>
+        <v>3112.518984760984</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4526,10 +4526,10 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>26900.09538109199</v>
+        <v>33978.22379198604</v>
       </c>
       <c r="C378" t="n">
-        <v>1064.802354964385</v>
+        <v>3112.518984760984</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4537,10 +4537,10 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>26900.09538109199</v>
+        <v>33978.22379198604</v>
       </c>
       <c r="C379" t="n">
-        <v>1064.802354964385</v>
+        <v>3112.518984760984</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4548,10 +4548,10 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>26900.09538109199</v>
+        <v>33978.22379198604</v>
       </c>
       <c r="C380" t="n">
-        <v>1064.802354964385</v>
+        <v>3112.518984760984</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4559,10 +4559,10 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>28252.48145898353</v>
+        <v>31725.53472194884</v>
       </c>
       <c r="C381" t="n">
-        <v>2273.631410818095</v>
+        <v>2342.003653799454</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4570,10 +4570,10 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>28252.48145898353</v>
+        <v>31725.53472194884</v>
       </c>
       <c r="C382" t="n">
-        <v>2273.631410818095</v>
+        <v>2342.003653799454</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4581,10 +4581,10 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>28252.48145898353</v>
+        <v>31725.53472194884</v>
       </c>
       <c r="C383" t="n">
-        <v>2273.631410818095</v>
+        <v>2342.003653799454</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4592,10 +4592,10 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>28252.48145898353</v>
+        <v>31725.53472194884</v>
       </c>
       <c r="C384" t="n">
-        <v>2273.631410818095</v>
+        <v>2342.003653799454</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4603,10 +4603,10 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>28252.48145898353</v>
+        <v>31725.53472194884</v>
       </c>
       <c r="C385" t="n">
-        <v>2273.631410818095</v>
+        <v>2342.003653799454</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4614,10 +4614,10 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>28252.48145898353</v>
+        <v>31725.53472194884</v>
       </c>
       <c r="C386" t="n">
-        <v>2273.631410818095</v>
+        <v>2342.003653799454</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -4625,10 +4625,10 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>28252.48145898353</v>
+        <v>31725.53472194884</v>
       </c>
       <c r="C387" t="n">
-        <v>2273.631410818095</v>
+        <v>2342.003653799454</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4636,10 +4636,10 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>32053.26601633604</v>
+        <v>40724.42096234464</v>
       </c>
       <c r="C388" t="n">
-        <v>2464.194276126873</v>
+        <v>2387.625363778524</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4647,10 +4647,10 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>32053.26601633604</v>
+        <v>40724.42096234464</v>
       </c>
       <c r="C389" t="n">
-        <v>2464.194276126873</v>
+        <v>2387.625363778524</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4658,10 +4658,10 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>32053.26601633604</v>
+        <v>40724.42096234464</v>
       </c>
       <c r="C390" t="n">
-        <v>2464.194276126873</v>
+        <v>2387.625363778524</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4669,10 +4669,10 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>32053.26601633604</v>
+        <v>40724.42096234464</v>
       </c>
       <c r="C391" t="n">
-        <v>2464.194276126873</v>
+        <v>2387.625363778524</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4680,10 +4680,10 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>32053.26601633604</v>
+        <v>40724.42096234464</v>
       </c>
       <c r="C392" t="n">
-        <v>2464.194276126873</v>
+        <v>2387.625363778524</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4691,10 +4691,10 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>32053.26601633604</v>
+        <v>40724.42096234464</v>
       </c>
       <c r="C393" t="n">
-        <v>2464.194276126873</v>
+        <v>2387.625363778524</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4702,10 +4702,10 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>32053.26601633604</v>
+        <v>40724.42096234464</v>
       </c>
       <c r="C394" t="n">
-        <v>2464.194276126873</v>
+        <v>2387.625363778524</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4713,10 +4713,10 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>46009.96213073044</v>
+        <v>43855.34275906369</v>
       </c>
       <c r="C395" t="n">
-        <v>2304.98401538499</v>
+        <v>4016.236094241128</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4724,10 +4724,10 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>46009.96213073044</v>
+        <v>43855.34275906369</v>
       </c>
       <c r="C396" t="n">
-        <v>2304.98401538499</v>
+        <v>4016.236094241128</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4735,10 +4735,10 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>46009.96213073044</v>
+        <v>43855.34275906369</v>
       </c>
       <c r="C397" t="n">
-        <v>2304.98401538499</v>
+        <v>4016.236094241128</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -4746,10 +4746,10 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>46009.96213073044</v>
+        <v>43855.34275906369</v>
       </c>
       <c r="C398" t="n">
-        <v>2304.98401538499</v>
+        <v>4016.236094241128</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4757,10 +4757,10 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>46009.96213073044</v>
+        <v>43855.34275906369</v>
       </c>
       <c r="C399" t="n">
-        <v>2304.98401538499</v>
+        <v>4016.236094241128</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -4768,10 +4768,10 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>46009.96213073044</v>
+        <v>43855.34275906369</v>
       </c>
       <c r="C400" t="n">
-        <v>2304.98401538499</v>
+        <v>4016.236094241128</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -4779,10 +4779,10 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>46009.96213073044</v>
+        <v>43855.34275906369</v>
       </c>
       <c r="C401" t="n">
-        <v>2304.98401538499</v>
+        <v>4016.236094241128</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -4790,10 +4790,10 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>50252.15976760827</v>
+        <v>56270.87137063721</v>
       </c>
       <c r="C402" t="n">
-        <v>2437.10665970728</v>
+        <v>3672.526038574969</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -4801,10 +4801,10 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>50252.15976760827</v>
+        <v>56270.87137063721</v>
       </c>
       <c r="C403" t="n">
-        <v>2437.10665970728</v>
+        <v>3672.526038574969</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -4812,10 +4812,10 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>50252.15976760827</v>
+        <v>56270.87137063721</v>
       </c>
       <c r="C404" t="n">
-        <v>2437.10665970728</v>
+        <v>3672.526038574969</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -4823,10 +4823,10 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>50252.15976760827</v>
+        <v>56270.87137063721</v>
       </c>
       <c r="C405" t="n">
-        <v>2437.10665970728</v>
+        <v>3672.526038574969</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -4834,10 +4834,10 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>50252.15976760827</v>
+        <v>56270.87137063721</v>
       </c>
       <c r="C406" t="n">
-        <v>2437.10665970728</v>
+        <v>3672.526038574969</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -4845,10 +4845,10 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>50252.15976760827</v>
+        <v>56270.87137063721</v>
       </c>
       <c r="C407" t="n">
-        <v>2437.10665970728</v>
+        <v>3672.526038574969</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -4856,10 +4856,10 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>50252.15976760827</v>
+        <v>56270.87137063721</v>
       </c>
       <c r="C408" t="n">
-        <v>2437.10665970728</v>
+        <v>3672.526038574969</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -4867,10 +4867,10 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>48119.87730579282</v>
+        <v>50982.36388011106</v>
       </c>
       <c r="C409" t="n">
-        <v>2736.583750150184</v>
+        <v>4243.734747597313</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -4878,10 +4878,10 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>48119.87730579282</v>
+        <v>50982.36388011106</v>
       </c>
       <c r="C410" t="n">
-        <v>2736.583750150184</v>
+        <v>4243.734747597313</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -4889,10 +4889,10 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>48119.87730579282</v>
+        <v>50982.36388011106</v>
       </c>
       <c r="C411" t="n">
-        <v>2736.583750150184</v>
+        <v>4243.734747597313</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -4900,10 +4900,10 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>48119.87730579282</v>
+        <v>50982.36388011106</v>
       </c>
       <c r="C412" t="n">
-        <v>2736.583750150184</v>
+        <v>4243.734747597313</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -4911,10 +4911,10 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>48119.87730579282</v>
+        <v>50982.36388011106</v>
       </c>
       <c r="C413" t="n">
-        <v>2736.583750150184</v>
+        <v>4243.734747597313</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -4922,10 +4922,10 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>48119.87730579282</v>
+        <v>50982.36388011106</v>
       </c>
       <c r="C414" t="n">
-        <v>2736.583750150184</v>
+        <v>4243.734747597313</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -4933,10 +4933,10 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>48119.87730579282</v>
+        <v>50982.36388011106</v>
       </c>
       <c r="C415" t="n">
-        <v>2736.583750150184</v>
+        <v>4243.734747597313</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -4944,10 +4944,10 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>50277.3855119081</v>
+        <v>46675.32786154174</v>
       </c>
       <c r="C416" t="n">
-        <v>2919.337840625003</v>
+        <v>4768.480331249426</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -4955,10 +4955,10 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>50277.3855119081</v>
+        <v>46675.32786154174</v>
       </c>
       <c r="C417" t="n">
-        <v>2919.337840625003</v>
+        <v>4768.480331249426</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -4966,10 +4966,10 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>50277.3855119081</v>
+        <v>46675.32786154174</v>
       </c>
       <c r="C418" t="n">
-        <v>2919.337840625003</v>
+        <v>4768.480331249426</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -4977,10 +4977,10 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>50277.3855119081</v>
+        <v>46675.32786154174</v>
       </c>
       <c r="C419" t="n">
-        <v>2919.337840625003</v>
+        <v>4768.480331249426</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -4988,10 +4988,10 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>50277.3855119081</v>
+        <v>46675.32786154174</v>
       </c>
       <c r="C420" t="n">
-        <v>2919.337840625003</v>
+        <v>4768.480331249426</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -4999,10 +4999,10 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>50277.3855119081</v>
+        <v>46675.32786154174</v>
       </c>
       <c r="C421" t="n">
-        <v>2919.337840625003</v>
+        <v>4768.480331249426</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -5010,10 +5010,10 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>50277.3855119081</v>
+        <v>46675.32786154174</v>
       </c>
       <c r="C422" t="n">
-        <v>2919.337840625003</v>
+        <v>4768.480331249426</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -5021,10 +5021,10 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>66106.14455757072</v>
+        <v>53920.25298087487</v>
       </c>
       <c r="C423" t="n">
-        <v>5304.312046523998</v>
+        <v>6950.946821044583</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -5032,10 +5032,10 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>66106.14455757072</v>
+        <v>53920.25298087487</v>
       </c>
       <c r="C424" t="n">
-        <v>5304.312046523998</v>
+        <v>6950.946821044583</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -5043,10 +5043,10 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>66106.14455757072</v>
+        <v>53920.25298087487</v>
       </c>
       <c r="C425" t="n">
-        <v>5304.312046523998</v>
+        <v>6950.946821044583</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -5054,10 +5054,10 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>66106.14455757072</v>
+        <v>53920.25298087487</v>
       </c>
       <c r="C426" t="n">
-        <v>5304.312046523998</v>
+        <v>6950.946821044583</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -5065,10 +5065,10 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>66106.14455757072</v>
+        <v>53920.25298087487</v>
       </c>
       <c r="C427" t="n">
-        <v>5304.312046523998</v>
+        <v>6950.946821044583</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -5076,10 +5076,10 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>66106.14455757072</v>
+        <v>53920.25298087487</v>
       </c>
       <c r="C428" t="n">
-        <v>5304.312046523998</v>
+        <v>6950.946821044583</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -5087,10 +5087,10 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>66106.14455757072</v>
+        <v>53920.25298087487</v>
       </c>
       <c r="C429" t="n">
-        <v>5304.312046523998</v>
+        <v>6950.946821044583</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -5098,10 +5098,10 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>74580.70185896476</v>
+        <v>67538.84856384818</v>
       </c>
       <c r="C430" t="n">
-        <v>6678.587558818426</v>
+        <v>6139.97866401489</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -5109,10 +5109,10 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>74580.70185896476</v>
+        <v>67538.84856384818</v>
       </c>
       <c r="C431" t="n">
-        <v>6678.587558818426</v>
+        <v>6139.97866401489</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -5120,10 +5120,10 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>74580.70185896476</v>
+        <v>67538.84856384818</v>
       </c>
       <c r="C432" t="n">
-        <v>6678.587558818426</v>
+        <v>6139.97866401489</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -5131,10 +5131,10 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>74580.70185896476</v>
+        <v>67538.84856384818</v>
       </c>
       <c r="C433" t="n">
-        <v>6678.587558818426</v>
+        <v>6139.97866401489</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -5142,10 +5142,10 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>74580.70185896476</v>
+        <v>67538.84856384818</v>
       </c>
       <c r="C434" t="n">
-        <v>6678.587558818426</v>
+        <v>6139.97866401489</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -5153,10 +5153,10 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>74580.70185896476</v>
+        <v>67538.84856384818</v>
       </c>
       <c r="C435" t="n">
-        <v>6678.587558818426</v>
+        <v>6139.97866401489</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -5164,10 +5164,10 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>74580.70185896476</v>
+        <v>67538.84856384818</v>
       </c>
       <c r="C436" t="n">
-        <v>6678.587558818426</v>
+        <v>6139.97866401489</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -5175,10 +5175,10 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>65156.95174966934</v>
+        <v>69916.05189196658</v>
       </c>
       <c r="C437" t="n">
-        <v>6647.163885534739</v>
+        <v>8735.265773296633</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -5186,10 +5186,10 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>65156.95174966934</v>
+        <v>69916.05189196658</v>
       </c>
       <c r="C438" t="n">
-        <v>6647.163885534739</v>
+        <v>8735.265773296633</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -5197,10 +5197,10 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>65156.95174966934</v>
+        <v>69916.05189196658</v>
       </c>
       <c r="C439" t="n">
-        <v>6647.163885534739</v>
+        <v>8735.265773296633</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -5208,10 +5208,10 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>65156.95174966934</v>
+        <v>69916.05189196658</v>
       </c>
       <c r="C440" t="n">
-        <v>6647.163885534739</v>
+        <v>8735.265773296633</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -5219,10 +5219,10 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>65156.95174966934</v>
+        <v>69916.05189196658</v>
       </c>
       <c r="C441" t="n">
-        <v>6647.163885534739</v>
+        <v>8735.265773296633</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -5230,10 +5230,10 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>65156.95174966934</v>
+        <v>69916.05189196658</v>
       </c>
       <c r="C442" t="n">
-        <v>6647.163885534739</v>
+        <v>8735.265773296633</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -5241,10 +5241,10 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>65156.95174966934</v>
+        <v>69916.05189196658</v>
       </c>
       <c r="C443" t="n">
-        <v>6647.163885534739</v>
+        <v>8735.265773296633</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -5252,10 +5252,10 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>75710.20190632669</v>
+        <v>78153.76355316749</v>
       </c>
       <c r="C444" t="n">
-        <v>9247.255099458376</v>
+        <v>11490.21784091636</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -5263,10 +5263,10 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>75710.20190632669</v>
+        <v>78153.76355316749</v>
       </c>
       <c r="C445" t="n">
-        <v>9247.255099458376</v>
+        <v>11490.21784091636</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -5274,10 +5274,10 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>75710.20190632669</v>
+        <v>78153.76355316749</v>
       </c>
       <c r="C446" t="n">
-        <v>9247.255099458376</v>
+        <v>11490.21784091636</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -5285,10 +5285,10 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>75710.20190632669</v>
+        <v>78153.76355316749</v>
       </c>
       <c r="C447" t="n">
-        <v>9247.255099458376</v>
+        <v>11490.21784091636</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -5296,10 +5296,10 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>75710.20190632669</v>
+        <v>78153.76355316749</v>
       </c>
       <c r="C448" t="n">
-        <v>9247.255099458376</v>
+        <v>11490.21784091636</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -5307,10 +5307,10 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>75710.20190632669</v>
+        <v>78153.76355316749</v>
       </c>
       <c r="C449" t="n">
-        <v>9247.255099458376</v>
+        <v>11490.21784091636</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -5318,10 +5318,10 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>75710.20190632669</v>
+        <v>78153.76355316749</v>
       </c>
       <c r="C450" t="n">
-        <v>9247.255099458376</v>
+        <v>11490.21784091636</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -5329,10 +5329,10 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>72288.45912178655</v>
+        <v>71317.48188809563</v>
       </c>
       <c r="C451" t="n">
-        <v>7797.154919691045</v>
+        <v>13443.83084672154</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -5340,10 +5340,10 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>72288.45912178655</v>
+        <v>71317.48188809563</v>
       </c>
       <c r="C452" t="n">
-        <v>7797.154919691045</v>
+        <v>13443.83084672154</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -5351,10 +5351,10 @@
         <v>451</v>
       </c>
       <c r="B453" t="n">
-        <v>72288.45912178655</v>
+        <v>71317.48188809563</v>
       </c>
       <c r="C453" t="n">
-        <v>7797.154919691045</v>
+        <v>13443.83084672154</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -5362,10 +5362,10 @@
         <v>452</v>
       </c>
       <c r="B454" t="n">
-        <v>72288.45912178655</v>
+        <v>71317.48188809563</v>
       </c>
       <c r="C454" t="n">
-        <v>7797.154919691045</v>
+        <v>13443.83084672154</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5373,10 +5373,10 @@
         <v>453</v>
       </c>
       <c r="B455" t="n">
-        <v>72288.45912178655</v>
+        <v>71317.48188809563</v>
       </c>
       <c r="C455" t="n">
-        <v>7797.154919691045</v>
+        <v>13443.83084672154</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -5384,10 +5384,10 @@
         <v>454</v>
       </c>
       <c r="B456" t="n">
-        <v>72288.45912178655</v>
+        <v>71317.48188809563</v>
       </c>
       <c r="C456" t="n">
-        <v>7797.154919691045</v>
+        <v>13443.83084672154</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5395,10 +5395,10 @@
         <v>455</v>
       </c>
       <c r="B457" t="n">
-        <v>72288.45912178655</v>
+        <v>71317.48188809563</v>
       </c>
       <c r="C457" t="n">
-        <v>7797.154919691045</v>
+        <v>13443.83084672154</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5406,10 +5406,10 @@
         <v>456</v>
       </c>
       <c r="B458" t="n">
-        <v>58087.11020127173</v>
+        <v>73911.30491612434</v>
       </c>
       <c r="C458" t="n">
-        <v>12471.04995565799</v>
+        <v>18394.52463505391</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5417,10 +5417,10 @@
         <v>457</v>
       </c>
       <c r="B459" t="n">
-        <v>58087.11020127173</v>
+        <v>73911.30491612434</v>
       </c>
       <c r="C459" t="n">
-        <v>12471.04995565799</v>
+        <v>18394.52463505391</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5428,10 +5428,10 @@
         <v>458</v>
       </c>
       <c r="B460" t="n">
-        <v>58087.11020127173</v>
+        <v>73911.30491612434</v>
       </c>
       <c r="C460" t="n">
-        <v>12471.04995565799</v>
+        <v>18394.52463505391</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5439,10 +5439,10 @@
         <v>459</v>
       </c>
       <c r="B461" t="n">
-        <v>58087.11020127173</v>
+        <v>73911.30491612434</v>
       </c>
       <c r="C461" t="n">
-        <v>12471.04995565799</v>
+        <v>18394.52463505391</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -5450,10 +5450,10 @@
         <v>460</v>
       </c>
       <c r="B462" t="n">
-        <v>58087.11020127173</v>
+        <v>73911.30491612434</v>
       </c>
       <c r="C462" t="n">
-        <v>12471.04995565799</v>
+        <v>18394.52463505391</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -5461,10 +5461,10 @@
         <v>461</v>
       </c>
       <c r="B463" t="n">
-        <v>58087.11020127173</v>
+        <v>73911.30491612434</v>
       </c>
       <c r="C463" t="n">
-        <v>12471.04995565799</v>
+        <v>18394.52463505391</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -5472,10 +5472,10 @@
         <v>462</v>
       </c>
       <c r="B464" t="n">
-        <v>58087.11020127173</v>
+        <v>73911.30491612434</v>
       </c>
       <c r="C464" t="n">
-        <v>12471.04995565799</v>
+        <v>18394.52463505391</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5483,10 +5483,10 @@
         <v>463</v>
       </c>
       <c r="B465" t="n">
-        <v>55404.33896973807</v>
+        <v>73480.55009418956</v>
       </c>
       <c r="C465" t="n">
-        <v>10010.52401864936</v>
+        <v>13861.48048344782</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5494,10 +5494,10 @@
         <v>464</v>
       </c>
       <c r="B466" t="n">
-        <v>55404.33896973807</v>
+        <v>73480.55009418956</v>
       </c>
       <c r="C466" t="n">
-        <v>10010.52401864936</v>
+        <v>13861.48048344782</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -5505,10 +5505,10 @@
         <v>465</v>
       </c>
       <c r="B467" t="n">
-        <v>55404.33896973807</v>
+        <v>73480.55009418956</v>
       </c>
       <c r="C467" t="n">
-        <v>10010.52401864936</v>
+        <v>13861.48048344782</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -5516,10 +5516,10 @@
         <v>466</v>
       </c>
       <c r="B468" t="n">
-        <v>55404.33896973807</v>
+        <v>73480.55009418956</v>
       </c>
       <c r="C468" t="n">
-        <v>10010.52401864936</v>
+        <v>13861.48048344782</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5527,10 +5527,10 @@
         <v>467</v>
       </c>
       <c r="B469" t="n">
-        <v>55404.33896973807</v>
+        <v>73480.55009418956</v>
       </c>
       <c r="C469" t="n">
-        <v>10010.52401864936</v>
+        <v>13861.48048344782</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5538,10 +5538,10 @@
         <v>468</v>
       </c>
       <c r="B470" t="n">
-        <v>55404.33896973807</v>
+        <v>73480.55009418956</v>
       </c>
       <c r="C470" t="n">
-        <v>10010.52401864936</v>
+        <v>13861.48048344782</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5549,10 +5549,10 @@
         <v>469</v>
       </c>
       <c r="B471" t="n">
-        <v>55404.33896973807</v>
+        <v>73480.55009418956</v>
       </c>
       <c r="C471" t="n">
-        <v>10010.52401864936</v>
+        <v>13861.48048344782</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5560,10 +5560,10 @@
         <v>470</v>
       </c>
       <c r="B472" t="n">
-        <v>54862.46762664553</v>
+        <v>72870.2074998429</v>
       </c>
       <c r="C472" t="n">
-        <v>10658.7561267062</v>
+        <v>13620.63012026669</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5571,10 +5571,10 @@
         <v>471</v>
       </c>
       <c r="B473" t="n">
-        <v>54862.46762664553</v>
+        <v>72870.2074998429</v>
       </c>
       <c r="C473" t="n">
-        <v>10658.7561267062</v>
+        <v>13620.63012026669</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -5582,10 +5582,10 @@
         <v>472</v>
       </c>
       <c r="B474" t="n">
-        <v>54862.46762664553</v>
+        <v>72870.2074998429</v>
       </c>
       <c r="C474" t="n">
-        <v>10658.7561267062</v>
+        <v>13620.63012026669</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5593,10 +5593,10 @@
         <v>473</v>
       </c>
       <c r="B475" t="n">
-        <v>54862.46762664553</v>
+        <v>72870.2074998429</v>
       </c>
       <c r="C475" t="n">
-        <v>10658.7561267062</v>
+        <v>13620.63012026669</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5604,10 +5604,10 @@
         <v>474</v>
       </c>
       <c r="B476" t="n">
-        <v>54862.46762664553</v>
+        <v>72870.2074998429</v>
       </c>
       <c r="C476" t="n">
-        <v>10658.7561267062</v>
+        <v>13620.63012026669</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5615,10 +5615,10 @@
         <v>475</v>
       </c>
       <c r="B477" t="n">
-        <v>54862.46762664553</v>
+        <v>72870.2074998429</v>
       </c>
       <c r="C477" t="n">
-        <v>10658.7561267062</v>
+        <v>13620.63012026669</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5626,10 +5626,10 @@
         <v>476</v>
       </c>
       <c r="B478" t="n">
-        <v>54862.46762664553</v>
+        <v>72870.2074998429</v>
       </c>
       <c r="C478" t="n">
-        <v>10658.7561267062</v>
+        <v>13620.63012026669</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5637,10 +5637,10 @@
         <v>477</v>
       </c>
       <c r="B479" t="n">
-        <v>53337.28414438238</v>
+        <v>67523.63997071605</v>
       </c>
       <c r="C479" t="n">
-        <v>10447.82636642628</v>
+        <v>13296.06098754678</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -5648,10 +5648,10 @@
         <v>478</v>
       </c>
       <c r="B480" t="n">
-        <v>53337.28414438238</v>
+        <v>67523.63997071605</v>
       </c>
       <c r="C480" t="n">
-        <v>10447.82636642628</v>
+        <v>13296.06098754678</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -5659,10 +5659,10 @@
         <v>479</v>
       </c>
       <c r="B481" t="n">
-        <v>53337.28414438238</v>
+        <v>67523.63997071605</v>
       </c>
       <c r="C481" t="n">
-        <v>10447.82636642628</v>
+        <v>13296.06098754678</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -5670,10 +5670,10 @@
         <v>480</v>
       </c>
       <c r="B482" t="n">
-        <v>53337.28414438238</v>
+        <v>67523.63997071605</v>
       </c>
       <c r="C482" t="n">
-        <v>10447.82636642628</v>
+        <v>13296.06098754678</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -5681,10 +5681,10 @@
         <v>481</v>
       </c>
       <c r="B483" t="n">
-        <v>53337.28414438238</v>
+        <v>67523.63997071605</v>
       </c>
       <c r="C483" t="n">
-        <v>10447.82636642628</v>
+        <v>13296.06098754678</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -5692,10 +5692,10 @@
         <v>482</v>
       </c>
       <c r="B484" t="n">
-        <v>53337.28414438238</v>
+        <v>67523.63997071605</v>
       </c>
       <c r="C484" t="n">
-        <v>10447.82636642628</v>
+        <v>13296.06098754678</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -5703,10 +5703,10 @@
         <v>483</v>
       </c>
       <c r="B485" t="n">
-        <v>53337.28414438238</v>
+        <v>67523.63997071605</v>
       </c>
       <c r="C485" t="n">
-        <v>10447.82636642628</v>
+        <v>13296.06098754678</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -5714,10 +5714,10 @@
         <v>484</v>
       </c>
       <c r="B486" t="n">
-        <v>52136.47680344282</v>
+        <v>60285.16447255573</v>
       </c>
       <c r="C486" t="n">
-        <v>14989.80464701238</v>
+        <v>16065.30738129531</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -5725,10 +5725,10 @@
         <v>485</v>
       </c>
       <c r="B487" t="n">
-        <v>52136.47680344282</v>
+        <v>60285.16447255573</v>
       </c>
       <c r="C487" t="n">
-        <v>14989.80464701238</v>
+        <v>16065.30738129531</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -5736,10 +5736,10 @@
         <v>486</v>
       </c>
       <c r="B488" t="n">
-        <v>52136.47680344282</v>
+        <v>60285.16447255573</v>
       </c>
       <c r="C488" t="n">
-        <v>14989.80464701238</v>
+        <v>16065.30738129531</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -5747,10 +5747,10 @@
         <v>487</v>
       </c>
       <c r="B489" t="n">
-        <v>52136.47680344282</v>
+        <v>60285.16447255573</v>
       </c>
       <c r="C489" t="n">
-        <v>14989.80464701238</v>
+        <v>16065.30738129531</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -5758,10 +5758,10 @@
         <v>488</v>
       </c>
       <c r="B490" t="n">
-        <v>52136.47680344282</v>
+        <v>60285.16447255573</v>
       </c>
       <c r="C490" t="n">
-        <v>14989.80464701238</v>
+        <v>16065.30738129531</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -5769,10 +5769,10 @@
         <v>489</v>
       </c>
       <c r="B491" t="n">
-        <v>52136.47680344282</v>
+        <v>60285.16447255573</v>
       </c>
       <c r="C491" t="n">
-        <v>14989.80464701238</v>
+        <v>16065.30738129531</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -5780,10 +5780,10 @@
         <v>490</v>
       </c>
       <c r="B492" t="n">
-        <v>52136.47680344282</v>
+        <v>60285.16447255573</v>
       </c>
       <c r="C492" t="n">
-        <v>14989.80464701238</v>
+        <v>16065.30738129531</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -5791,10 +5791,10 @@
         <v>491</v>
       </c>
       <c r="B493" t="n">
-        <v>52023.81045260892</v>
+        <v>58184.32650282339</v>
       </c>
       <c r="C493" t="n">
-        <v>14989.80464701238</v>
+        <v>16230.41573478378</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -5802,10 +5802,10 @@
         <v>492</v>
       </c>
       <c r="B494" t="n">
-        <v>52023.81045260892</v>
+        <v>58184.32650282339</v>
       </c>
       <c r="C494" t="n">
-        <v>14989.80464701238</v>
+        <v>16230.41573478378</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -5813,10 +5813,10 @@
         <v>493</v>
       </c>
       <c r="B495" t="n">
-        <v>52023.81045260892</v>
+        <v>58184.32650282339</v>
       </c>
       <c r="C495" t="n">
-        <v>14989.80464701238</v>
+        <v>16230.41573478378</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -5824,10 +5824,10 @@
         <v>494</v>
       </c>
       <c r="B496" t="n">
-        <v>52023.81045260892</v>
+        <v>58184.32650282339</v>
       </c>
       <c r="C496" t="n">
-        <v>14989.80464701238</v>
+        <v>16230.41573478378</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -5835,10 +5835,10 @@
         <v>495</v>
       </c>
       <c r="B497" t="n">
-        <v>52023.81045260892</v>
+        <v>58184.32650282339</v>
       </c>
       <c r="C497" t="n">
-        <v>14989.80464701238</v>
+        <v>16230.41573478378</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -5846,10 +5846,10 @@
         <v>496</v>
       </c>
       <c r="B498" t="n">
-        <v>52023.81045260892</v>
+        <v>58184.32650282339</v>
       </c>
       <c r="C498" t="n">
-        <v>14989.80464701238</v>
+        <v>16230.41573478378</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -5857,10 +5857,10 @@
         <v>497</v>
       </c>
       <c r="B499" t="n">
-        <v>52023.81045260892</v>
+        <v>58184.32650282339</v>
       </c>
       <c r="C499" t="n">
-        <v>14989.80464701238</v>
+        <v>16230.41573478378</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -5868,10 +5868,10 @@
         <v>498</v>
       </c>
       <c r="B500" t="n">
-        <v>50607.03751460001</v>
+        <v>61429.6831018381</v>
       </c>
       <c r="C500" t="n">
-        <v>14786.63837100168</v>
+        <v>16252.70486182464</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -5879,10 +5879,10 @@
         <v>499</v>
       </c>
       <c r="B501" t="n">
-        <v>50607.03751460001</v>
+        <v>61429.6831018381</v>
       </c>
       <c r="C501" t="n">
-        <v>14786.63837100168</v>
+        <v>16252.70486182464</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -5890,10 +5890,10 @@
         <v>500</v>
       </c>
       <c r="B502" t="n">
-        <v>50607.03751460001</v>
+        <v>61429.6831018381</v>
       </c>
       <c r="C502" t="n">
-        <v>14786.63837100168</v>
+        <v>16252.70486182464</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -5901,10 +5901,10 @@
         <v>501</v>
       </c>
       <c r="B503" t="n">
-        <v>50607.03751460001</v>
+        <v>61429.6831018381</v>
       </c>
       <c r="C503" t="n">
-        <v>14786.63837100168</v>
+        <v>16252.70486182464</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -5912,10 +5912,10 @@
         <v>502</v>
       </c>
       <c r="B504" t="n">
-        <v>50607.03751460001</v>
+        <v>61429.6831018381</v>
       </c>
       <c r="C504" t="n">
-        <v>14786.63837100168</v>
+        <v>16252.70486182464</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -5923,10 +5923,10 @@
         <v>503</v>
       </c>
       <c r="B505" t="n">
-        <v>50607.03751460001</v>
+        <v>61429.6831018381</v>
       </c>
       <c r="C505" t="n">
-        <v>14786.63837100168</v>
+        <v>16252.70486182464</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -5934,10 +5934,10 @@
         <v>504</v>
       </c>
       <c r="B506" t="n">
-        <v>50607.03751460001</v>
+        <v>61429.6831018381</v>
       </c>
       <c r="C506" t="n">
-        <v>14786.63837100168</v>
+        <v>16252.70486182464</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -5945,10 +5945,10 @@
         <v>505</v>
       </c>
       <c r="B507" t="n">
-        <v>49874.50476462683</v>
+        <v>67132.11396825645</v>
       </c>
       <c r="C507" t="n">
-        <v>14786.63837100168</v>
+        <v>16131.30117012717</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -5956,10 +5956,10 @@
         <v>506</v>
       </c>
       <c r="B508" t="n">
-        <v>49874.50476462683</v>
+        <v>67132.11396825645</v>
       </c>
       <c r="C508" t="n">
-        <v>14786.63837100168</v>
+        <v>16131.30117012717</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -5967,10 +5967,10 @@
         <v>507</v>
       </c>
       <c r="B509" t="n">
-        <v>49874.50476462683</v>
+        <v>67132.11396825645</v>
       </c>
       <c r="C509" t="n">
-        <v>14786.63837100168</v>
+        <v>16131.30117012717</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -5978,10 +5978,10 @@
         <v>508</v>
       </c>
       <c r="B510" t="n">
-        <v>49874.50476462683</v>
+        <v>67132.11396825645</v>
       </c>
       <c r="C510" t="n">
-        <v>14786.63837100168</v>
+        <v>16131.30117012717</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -5989,10 +5989,10 @@
         <v>509</v>
       </c>
       <c r="B511" t="n">
-        <v>49874.50476462683</v>
+        <v>67132.11396825645</v>
       </c>
       <c r="C511" t="n">
-        <v>14786.63837100168</v>
+        <v>16131.30117012717</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -6000,10 +6000,10 @@
         <v>510</v>
       </c>
       <c r="B512" t="n">
-        <v>49874.50476462683</v>
+        <v>67132.11396825645</v>
       </c>
       <c r="C512" t="n">
-        <v>14786.63837100168</v>
+        <v>16131.30117012717</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -6011,10 +6011,10 @@
         <v>511</v>
       </c>
       <c r="B513" t="n">
-        <v>49874.50476462683</v>
+        <v>67132.11396825645</v>
       </c>
       <c r="C513" t="n">
-        <v>14786.63837100168</v>
+        <v>16131.30117012717</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -6022,10 +6022,10 @@
         <v>512</v>
       </c>
       <c r="B514" t="n">
-        <v>50700.65441066208</v>
+        <v>66143.88460762959</v>
       </c>
       <c r="C514" t="n">
-        <v>15437.79317207373</v>
+        <v>15924.17475206591</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -6033,10 +6033,10 @@
         <v>513</v>
       </c>
       <c r="B515" t="n">
-        <v>50700.65441066208</v>
+        <v>66143.88460762959</v>
       </c>
       <c r="C515" t="n">
-        <v>15437.79317207373</v>
+        <v>15924.17475206591</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -6044,10 +6044,10 @@
         <v>514</v>
       </c>
       <c r="B516" t="n">
-        <v>50700.65441066208</v>
+        <v>66143.88460762959</v>
       </c>
       <c r="C516" t="n">
-        <v>15437.79317207373</v>
+        <v>15924.17475206591</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -6055,10 +6055,10 @@
         <v>515</v>
       </c>
       <c r="B517" t="n">
-        <v>50700.65441066208</v>
+        <v>66143.88460762959</v>
       </c>
       <c r="C517" t="n">
-        <v>15437.79317207373</v>
+        <v>15924.17475206591</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -6066,10 +6066,10 @@
         <v>516</v>
       </c>
       <c r="B518" t="n">
-        <v>50700.65441066208</v>
+        <v>66143.88460762959</v>
       </c>
       <c r="C518" t="n">
-        <v>15437.79317207373</v>
+        <v>15924.17475206591</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -6077,10 +6077,10 @@
         <v>517</v>
       </c>
       <c r="B519" t="n">
-        <v>50700.65441066208</v>
+        <v>66143.88460762959</v>
       </c>
       <c r="C519" t="n">
-        <v>15437.79317207373</v>
+        <v>15924.17475206591</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -6088,10 +6088,10 @@
         <v>518</v>
       </c>
       <c r="B520" t="n">
-        <v>50700.65441066208</v>
+        <v>66143.88460762959</v>
       </c>
       <c r="C520" t="n">
-        <v>15437.79317207373</v>
+        <v>15924.17475206591</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -6099,10 +6099,10 @@
         <v>519</v>
       </c>
       <c r="B521" t="n">
-        <v>54313.76817280928</v>
+        <v>60848.19960880552</v>
       </c>
       <c r="C521" t="n">
-        <v>14081.77544481511</v>
+        <v>16586.35146913839</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -6110,10 +6110,10 @@
         <v>520</v>
       </c>
       <c r="B522" t="n">
-        <v>54313.76817280928</v>
+        <v>60848.19960880552</v>
       </c>
       <c r="C522" t="n">
-        <v>14081.77544481511</v>
+        <v>16586.35146913839</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -6121,10 +6121,10 @@
         <v>521</v>
       </c>
       <c r="B523" t="n">
-        <v>54313.76817280928</v>
+        <v>60848.19960880552</v>
       </c>
       <c r="C523" t="n">
-        <v>14081.77544481511</v>
+        <v>16586.35146913839</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -6132,10 +6132,10 @@
         <v>522</v>
       </c>
       <c r="B524" t="n">
-        <v>54313.76817280928</v>
+        <v>60848.19960880552</v>
       </c>
       <c r="C524" t="n">
-        <v>14081.77544481511</v>
+        <v>16586.35146913839</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -6143,10 +6143,10 @@
         <v>523</v>
       </c>
       <c r="B525" t="n">
-        <v>54313.76817280928</v>
+        <v>60848.19960880552</v>
       </c>
       <c r="C525" t="n">
-        <v>14081.77544481511</v>
+        <v>16586.35146913839</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -6154,10 +6154,10 @@
         <v>524</v>
       </c>
       <c r="B526" t="n">
-        <v>54313.76817280928</v>
+        <v>60848.19960880552</v>
       </c>
       <c r="C526" t="n">
-        <v>14081.77544481511</v>
+        <v>16586.35146913839</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -6165,10 +6165,10 @@
         <v>525</v>
       </c>
       <c r="B527" t="n">
-        <v>54313.76817280928</v>
+        <v>60848.19960880552</v>
       </c>
       <c r="C527" t="n">
-        <v>14081.77544481511</v>
+        <v>16586.35146913839</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -6176,10 +6176,10 @@
         <v>526</v>
       </c>
       <c r="B528" t="n">
-        <v>59527.89859104524</v>
+        <v>58495.61884895252</v>
       </c>
       <c r="C528" t="n">
-        <v>10123.14673114626</v>
+        <v>11989.81244826837</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -6187,10 +6187,10 @@
         <v>527</v>
       </c>
       <c r="B529" t="n">
-        <v>59527.89859104524</v>
+        <v>58495.61884895252</v>
       </c>
       <c r="C529" t="n">
-        <v>10123.14673114626</v>
+        <v>11989.81244826837</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -6198,10 +6198,10 @@
         <v>528</v>
       </c>
       <c r="B530" t="n">
-        <v>59527.89859104524</v>
+        <v>58495.61884895252</v>
       </c>
       <c r="C530" t="n">
-        <v>10123.14673114626</v>
+        <v>11989.81244826837</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -6209,10 +6209,10 @@
         <v>529</v>
       </c>
       <c r="B531" t="n">
-        <v>59527.89859104524</v>
+        <v>58495.61884895252</v>
       </c>
       <c r="C531" t="n">
-        <v>10123.14673114626</v>
+        <v>11989.81244826837</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -6220,10 +6220,10 @@
         <v>530</v>
       </c>
       <c r="B532" t="n">
-        <v>59527.89859104524</v>
+        <v>58495.61884895252</v>
       </c>
       <c r="C532" t="n">
-        <v>10123.14673114626</v>
+        <v>11989.81244826837</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -6231,10 +6231,10 @@
         <v>531</v>
       </c>
       <c r="B533" t="n">
-        <v>59527.89859104524</v>
+        <v>58495.61884895252</v>
       </c>
       <c r="C533" t="n">
-        <v>10123.14673114626</v>
+        <v>11989.81244826837</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -6242,10 +6242,10 @@
         <v>532</v>
       </c>
       <c r="B534" t="n">
-        <v>59527.89859104524</v>
+        <v>58495.61884895252</v>
       </c>
       <c r="C534" t="n">
-        <v>10123.14673114626</v>
+        <v>11989.81244826837</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -6253,10 +6253,10 @@
         <v>533</v>
       </c>
       <c r="B535" t="n">
-        <v>59648.90129986188</v>
+        <v>52378.17343100505</v>
       </c>
       <c r="C535" t="n">
-        <v>10014.92815004395</v>
+        <v>12006.38198099348</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -6264,10 +6264,10 @@
         <v>534</v>
       </c>
       <c r="B536" t="n">
-        <v>59648.90129986188</v>
+        <v>52378.17343100505</v>
       </c>
       <c r="C536" t="n">
-        <v>10014.92815004395</v>
+        <v>12006.38198099348</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -6275,10 +6275,10 @@
         <v>535</v>
       </c>
       <c r="B537" t="n">
-        <v>59648.90129986188</v>
+        <v>52378.17343100505</v>
       </c>
       <c r="C537" t="n">
-        <v>10014.92815004395</v>
+        <v>12006.38198099348</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -6286,10 +6286,10 @@
         <v>536</v>
       </c>
       <c r="B538" t="n">
-        <v>59648.90129986188</v>
+        <v>52378.17343100505</v>
       </c>
       <c r="C538" t="n">
-        <v>10014.92815004395</v>
+        <v>12006.38198099348</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -6297,10 +6297,10 @@
         <v>537</v>
       </c>
       <c r="B539" t="n">
-        <v>59648.90129986188</v>
+        <v>52378.17343100505</v>
       </c>
       <c r="C539" t="n">
-        <v>10014.92815004395</v>
+        <v>12006.38198099348</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -6308,10 +6308,10 @@
         <v>538</v>
       </c>
       <c r="B540" t="n">
-        <v>59648.90129986188</v>
+        <v>52378.17343100505</v>
       </c>
       <c r="C540" t="n">
-        <v>10014.92815004395</v>
+        <v>12006.38198099348</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -6319,10 +6319,10 @@
         <v>539</v>
       </c>
       <c r="B541" t="n">
-        <v>59648.90129986188</v>
+        <v>52378.17343100505</v>
       </c>
       <c r="C541" t="n">
-        <v>10014.92815004395</v>
+        <v>12006.38198099348</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -6330,10 +6330,10 @@
         <v>540</v>
       </c>
       <c r="B542" t="n">
-        <v>59245.54891255458</v>
+        <v>50072.69377368439</v>
       </c>
       <c r="C542" t="n">
-        <v>9742.776374669538</v>
+        <v>11914.02642840386</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -6341,10 +6341,10 @@
         <v>541</v>
       </c>
       <c r="B543" t="n">
-        <v>59245.54891255458</v>
+        <v>50072.69377368439</v>
       </c>
       <c r="C543" t="n">
-        <v>9742.776374669538</v>
+        <v>11914.02642840386</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -6352,10 +6352,10 @@
         <v>542</v>
       </c>
       <c r="B544" t="n">
-        <v>59245.54891255458</v>
+        <v>50072.69377368439</v>
       </c>
       <c r="C544" t="n">
-        <v>9742.776374669538</v>
+        <v>11914.02642840386</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -6363,10 +6363,10 @@
         <v>543</v>
       </c>
       <c r="B545" t="n">
-        <v>59245.54891255458</v>
+        <v>50072.69377368439</v>
       </c>
       <c r="C545" t="n">
-        <v>9742.776374669538</v>
+        <v>11914.02642840386</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -6374,10 +6374,10 @@
         <v>544</v>
       </c>
       <c r="B546" t="n">
-        <v>59245.54891255458</v>
+        <v>50072.69377368439</v>
       </c>
       <c r="C546" t="n">
-        <v>9742.776374669538</v>
+        <v>11914.02642840386</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -6385,10 +6385,10 @@
         <v>545</v>
       </c>
       <c r="B547" t="n">
-        <v>59245.54891255458</v>
+        <v>50072.69377368439</v>
       </c>
       <c r="C547" t="n">
-        <v>9742.776374669538</v>
+        <v>11914.02642840386</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -6396,10 +6396,10 @@
         <v>546</v>
       </c>
       <c r="B548" t="n">
-        <v>59245.54891255458</v>
+        <v>50072.69377368439</v>
       </c>
       <c r="C548" t="n">
-        <v>9742.776374669538</v>
+        <v>11914.02642840386</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -6407,10 +6407,10 @@
         <v>547</v>
       </c>
       <c r="B549" t="n">
-        <v>63479.17827422848</v>
+        <v>52928.92385163478</v>
       </c>
       <c r="C549" t="n">
-        <v>9425.036691260475</v>
+        <v>11827.43124286283</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -6418,10 +6418,10 @@
         <v>548</v>
       </c>
       <c r="B550" t="n">
-        <v>63479.17827422848</v>
+        <v>52928.92385163478</v>
       </c>
       <c r="C550" t="n">
-        <v>9425.036691260475</v>
+        <v>11827.43124286283</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -6429,10 +6429,10 @@
         <v>549</v>
       </c>
       <c r="B551" t="n">
-        <v>63479.17827422848</v>
+        <v>52928.92385163478</v>
       </c>
       <c r="C551" t="n">
-        <v>9425.036691260475</v>
+        <v>11827.43124286283</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -6440,10 +6440,10 @@
         <v>550</v>
       </c>
       <c r="B552" t="n">
-        <v>63479.17827422848</v>
+        <v>52928.92385163478</v>
       </c>
       <c r="C552" t="n">
-        <v>9425.036691260475</v>
+        <v>11827.43124286283</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -6451,10 +6451,10 @@
         <v>551</v>
       </c>
       <c r="B553" t="n">
-        <v>63479.17827422848</v>
+        <v>52928.92385163478</v>
       </c>
       <c r="C553" t="n">
-        <v>9425.036691260475</v>
+        <v>11827.43124286283</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -6462,10 +6462,10 @@
         <v>552</v>
       </c>
       <c r="B554" t="n">
-        <v>63479.17827422848</v>
+        <v>52928.92385163478</v>
       </c>
       <c r="C554" t="n">
-        <v>9425.036691260475</v>
+        <v>11827.43124286283</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -6473,10 +6473,10 @@
         <v>553</v>
       </c>
       <c r="B555" t="n">
-        <v>63479.17827422848</v>
+        <v>52928.92385163478</v>
       </c>
       <c r="C555" t="n">
-        <v>9425.036691260475</v>
+        <v>11827.43124286283</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -6484,10 +6484,10 @@
         <v>554</v>
       </c>
       <c r="B556" t="n">
-        <v>62339.14633521946</v>
+        <v>50623.89223327759</v>
       </c>
       <c r="C556" t="n">
-        <v>9473.41070048093</v>
+        <v>11829.76165635318</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -6495,10 +6495,10 @@
         <v>555</v>
       </c>
       <c r="B557" t="n">
-        <v>62339.14633521946</v>
+        <v>50623.89223327759</v>
       </c>
       <c r="C557" t="n">
-        <v>9473.41070048093</v>
+        <v>11829.76165635318</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -6506,10 +6506,10 @@
         <v>556</v>
       </c>
       <c r="B558" t="n">
-        <v>62339.14633521946</v>
+        <v>50623.89223327759</v>
       </c>
       <c r="C558" t="n">
-        <v>9473.41070048093</v>
+        <v>11829.76165635318</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -6517,10 +6517,10 @@
         <v>557</v>
       </c>
       <c r="B559" t="n">
-        <v>62339.14633521946</v>
+        <v>50623.89223327759</v>
       </c>
       <c r="C559" t="n">
-        <v>9473.41070048093</v>
+        <v>11829.76165635318</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -6528,10 +6528,10 @@
         <v>558</v>
       </c>
       <c r="B560" t="n">
-        <v>62339.14633521946</v>
+        <v>50623.89223327759</v>
       </c>
       <c r="C560" t="n">
-        <v>9473.41070048093</v>
+        <v>11829.76165635318</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -6539,10 +6539,10 @@
         <v>559</v>
       </c>
       <c r="B561" t="n">
-        <v>62339.14633521946</v>
+        <v>50623.89223327759</v>
       </c>
       <c r="C561" t="n">
-        <v>9473.41070048093</v>
+        <v>11829.76165635318</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -6550,10 +6550,10 @@
         <v>560</v>
       </c>
       <c r="B562" t="n">
-        <v>62339.14633521946</v>
+        <v>50623.89223327759</v>
       </c>
       <c r="C562" t="n">
-        <v>9473.41070048093</v>
+        <v>11829.76165635318</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -6561,10 +6561,10 @@
         <v>561</v>
       </c>
       <c r="B563" t="n">
-        <v>61810.92158283109</v>
+        <v>49666.05914819056</v>
       </c>
       <c r="C563" t="n">
-        <v>9445.170274309889</v>
+        <v>11806.79446685926</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -6572,10 +6572,10 @@
         <v>562</v>
       </c>
       <c r="B564" t="n">
-        <v>61810.92158283109</v>
+        <v>49666.05914819056</v>
       </c>
       <c r="C564" t="n">
-        <v>9445.170274309889</v>
+        <v>11806.79446685926</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -6583,10 +6583,10 @@
         <v>563</v>
       </c>
       <c r="B565" t="n">
-        <v>61810.92158283109</v>
+        <v>49666.05914819056</v>
       </c>
       <c r="C565" t="n">
-        <v>9445.170274309889</v>
+        <v>11806.79446685926</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -6594,10 +6594,10 @@
         <v>564</v>
       </c>
       <c r="B566" t="n">
-        <v>61810.92158283109</v>
+        <v>49666.05914819056</v>
       </c>
       <c r="C566" t="n">
-        <v>9445.170274309889</v>
+        <v>11806.79446685926</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -6605,10 +6605,10 @@
         <v>565</v>
       </c>
       <c r="B567" t="n">
-        <v>61810.92158283109</v>
+        <v>49666.05914819056</v>
       </c>
       <c r="C567" t="n">
-        <v>9445.170274309889</v>
+        <v>11806.79446685926</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -6616,10 +6616,10 @@
         <v>566</v>
       </c>
       <c r="B568" t="n">
-        <v>61810.92158283109</v>
+        <v>49666.05914819056</v>
       </c>
       <c r="C568" t="n">
-        <v>9445.170274309889</v>
+        <v>11806.79446685926</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -6627,10 +6627,10 @@
         <v>567</v>
       </c>
       <c r="B569" t="n">
-        <v>61810.92158283109</v>
+        <v>49666.05914819056</v>
       </c>
       <c r="C569" t="n">
-        <v>9445.170274309889</v>
+        <v>11806.79446685926</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -6638,10 +6638,10 @@
         <v>568</v>
       </c>
       <c r="B570" t="n">
-        <v>59322.37255134182</v>
+        <v>47371.35800395256</v>
       </c>
       <c r="C570" t="n">
-        <v>9454.503890450429</v>
+        <v>11819.6795607392</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -6649,10 +6649,10 @@
         <v>569</v>
       </c>
       <c r="B571" t="n">
-        <v>59322.37255134182</v>
+        <v>47371.35800395256</v>
       </c>
       <c r="C571" t="n">
-        <v>9454.503890450429</v>
+        <v>11819.6795607392</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -6660,10 +6660,10 @@
         <v>570</v>
       </c>
       <c r="B572" t="n">
-        <v>59322.37255134182</v>
+        <v>47371.35800395256</v>
       </c>
       <c r="C572" t="n">
-        <v>9454.503890450429</v>
+        <v>11819.6795607392</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -6671,10 +6671,10 @@
         <v>571</v>
       </c>
       <c r="B573" t="n">
-        <v>59322.37255134182</v>
+        <v>47371.35800395256</v>
       </c>
       <c r="C573" t="n">
-        <v>9454.503890450429</v>
+        <v>11819.6795607392</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -6682,10 +6682,10 @@
         <v>572</v>
       </c>
       <c r="B574" t="n">
-        <v>59322.37255134182</v>
+        <v>47371.35800395256</v>
       </c>
       <c r="C574" t="n">
-        <v>9454.503890450429</v>
+        <v>11819.6795607392</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -6693,10 +6693,10 @@
         <v>573</v>
       </c>
       <c r="B575" t="n">
-        <v>59322.37255134182</v>
+        <v>47371.35800395256</v>
       </c>
       <c r="C575" t="n">
-        <v>9454.503890450429</v>
+        <v>11819.6795607392</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -6704,10 +6704,10 @@
         <v>574</v>
       </c>
       <c r="B576" t="n">
-        <v>59322.37255134182</v>
+        <v>47371.35800395256</v>
       </c>
       <c r="C576" t="n">
-        <v>9454.503890450429</v>
+        <v>11819.6795607392</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -6715,10 +6715,10 @@
         <v>575</v>
       </c>
       <c r="B577" t="n">
-        <v>52231.59788935464</v>
+        <v>46859.36488871024</v>
       </c>
       <c r="C577" t="n">
-        <v>8599.510846234674</v>
+        <v>11791.70146551966</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -6726,10 +6726,10 @@
         <v>576</v>
       </c>
       <c r="B578" t="n">
-        <v>52231.59788935464</v>
+        <v>46859.36488871024</v>
       </c>
       <c r="C578" t="n">
-        <v>8599.510846234674</v>
+        <v>11791.70146551966</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -6737,10 +6737,10 @@
         <v>577</v>
       </c>
       <c r="B579" t="n">
-        <v>52231.59788935464</v>
+        <v>46859.36488871024</v>
       </c>
       <c r="C579" t="n">
-        <v>8599.510846234674</v>
+        <v>11791.70146551966</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -6748,10 +6748,10 @@
         <v>578</v>
       </c>
       <c r="B580" t="n">
-        <v>52231.59788935464</v>
+        <v>46859.36488871024</v>
       </c>
       <c r="C580" t="n">
-        <v>8599.510846234674</v>
+        <v>11791.70146551966</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -6759,10 +6759,10 @@
         <v>579</v>
       </c>
       <c r="B581" t="n">
-        <v>52231.59788935464</v>
+        <v>46859.36488871024</v>
       </c>
       <c r="C581" t="n">
-        <v>8599.510846234674</v>
+        <v>11791.70146551966</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -6770,10 +6770,10 @@
         <v>580</v>
       </c>
       <c r="B582" t="n">
-        <v>52231.59788935464</v>
+        <v>46859.36488871024</v>
       </c>
       <c r="C582" t="n">
-        <v>8599.510846234674</v>
+        <v>11791.70146551966</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -6781,10 +6781,10 @@
         <v>581</v>
       </c>
       <c r="B583" t="n">
-        <v>52231.59788935464</v>
+        <v>46859.36488871024</v>
       </c>
       <c r="C583" t="n">
-        <v>8599.510846234674</v>
+        <v>11791.70146551966</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -6792,10 +6792,10 @@
         <v>582</v>
       </c>
       <c r="B584" t="n">
-        <v>51018.59889415164</v>
+        <v>44698.55994842538</v>
       </c>
       <c r="C584" t="n">
-        <v>3508.781407596812</v>
+        <v>11436.13654065725</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -6803,10 +6803,10 @@
         <v>583</v>
       </c>
       <c r="B585" t="n">
-        <v>51018.59889415164</v>
+        <v>44698.55994842538</v>
       </c>
       <c r="C585" t="n">
-        <v>3508.781407596812</v>
+        <v>11436.13654065725</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -6814,10 +6814,10 @@
         <v>584</v>
       </c>
       <c r="B586" t="n">
-        <v>51018.59889415164</v>
+        <v>44698.55994842538</v>
       </c>
       <c r="C586" t="n">
-        <v>3508.781407596812</v>
+        <v>11436.13654065725</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -6825,10 +6825,10 @@
         <v>585</v>
       </c>
       <c r="B587" t="n">
-        <v>51018.59889415164</v>
+        <v>44698.55994842538</v>
       </c>
       <c r="C587" t="n">
-        <v>3508.781407596812</v>
+        <v>11436.13654065725</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -6836,10 +6836,10 @@
         <v>586</v>
       </c>
       <c r="B588" t="n">
-        <v>51018.59889415164</v>
+        <v>44698.55994842538</v>
       </c>
       <c r="C588" t="n">
-        <v>3508.781407596812</v>
+        <v>11436.13654065725</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -6847,10 +6847,10 @@
         <v>587</v>
       </c>
       <c r="B589" t="n">
-        <v>51018.59889415164</v>
+        <v>44698.55994842538</v>
       </c>
       <c r="C589" t="n">
-        <v>3508.781407596812</v>
+        <v>11436.13654065725</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -6858,10 +6858,10 @@
         <v>588</v>
       </c>
       <c r="B590" t="n">
-        <v>51018.59889415164</v>
+        <v>44698.55994842538</v>
       </c>
       <c r="C590" t="n">
-        <v>3508.781407596812</v>
+        <v>11436.13654065725</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -6869,10 +6869,10 @@
         <v>589</v>
       </c>
       <c r="B591" t="n">
-        <v>47780.83074609801</v>
+        <v>43957.87650726997</v>
       </c>
       <c r="C591" t="n">
-        <v>2882.921312819482</v>
+        <v>10741.11390984867</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -6880,10 +6880,10 @@
         <v>590</v>
       </c>
       <c r="B592" t="n">
-        <v>47780.83074609801</v>
+        <v>43957.87650726997</v>
       </c>
       <c r="C592" t="n">
-        <v>2882.921312819482</v>
+        <v>10741.11390984867</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -6891,10 +6891,10 @@
         <v>591</v>
       </c>
       <c r="B593" t="n">
-        <v>47780.83074609801</v>
+        <v>43957.87650726997</v>
       </c>
       <c r="C593" t="n">
-        <v>2882.921312819482</v>
+        <v>10741.11390984867</v>
       </c>
     </row>
     <row r="594" spans="1:3">
@@ -6902,10 +6902,10 @@
         <v>592</v>
       </c>
       <c r="B594" t="n">
-        <v>47780.83074609801</v>
+        <v>43957.87650726997</v>
       </c>
       <c r="C594" t="n">
-        <v>2882.921312819482</v>
+        <v>10741.11390984867</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -6913,10 +6913,10 @@
         <v>593</v>
       </c>
       <c r="B595" t="n">
-        <v>47780.83074609801</v>
+        <v>43957.87650726997</v>
       </c>
       <c r="C595" t="n">
-        <v>2882.921312819482</v>
+        <v>10741.11390984867</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -6924,10 +6924,10 @@
         <v>594</v>
       </c>
       <c r="B596" t="n">
-        <v>47780.83074609801</v>
+        <v>43957.87650726997</v>
       </c>
       <c r="C596" t="n">
-        <v>2882.921312819482</v>
+        <v>10741.11390984867</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -6935,10 +6935,10 @@
         <v>595</v>
       </c>
       <c r="B597" t="n">
-        <v>47780.83074609801</v>
+        <v>43957.87650726997</v>
       </c>
       <c r="C597" t="n">
-        <v>2882.921312819482</v>
+        <v>10741.11390984867</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -6946,10 +6946,10 @@
         <v>596</v>
       </c>
       <c r="B598" t="n">
-        <v>46096.04242650689</v>
+        <v>42223.52895304911</v>
       </c>
       <c r="C598" t="n">
-        <v>3033.881073281059</v>
+        <v>10246.81232500244</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -6957,10 +6957,10 @@
         <v>597</v>
       </c>
       <c r="B599" t="n">
-        <v>46096.04242650689</v>
+        <v>42223.52895304911</v>
       </c>
       <c r="C599" t="n">
-        <v>3033.881073281059</v>
+        <v>10246.81232500244</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -6968,10 +6968,10 @@
         <v>598</v>
       </c>
       <c r="B600" t="n">
-        <v>46096.04242650689</v>
+        <v>42223.52895304911</v>
       </c>
       <c r="C600" t="n">
-        <v>3033.881073281059</v>
+        <v>10246.81232500244</v>
       </c>
     </row>
     <row r="601" spans="1:3">
@@ -6979,10 +6979,10 @@
         <v>599</v>
       </c>
       <c r="B601" t="n">
-        <v>46096.04242650689</v>
+        <v>42223.52895304911</v>
       </c>
       <c r="C601" t="n">
-        <v>3033.881073281059</v>
+        <v>10246.81232500244</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -6990,10 +6990,10 @@
         <v>600</v>
       </c>
       <c r="B602" t="n">
-        <v>46096.04242650689</v>
+        <v>42223.52895304911</v>
       </c>
       <c r="C602" t="n">
-        <v>3033.881073281059</v>
+        <v>10246.81232500244</v>
       </c>
     </row>
     <row r="603" spans="1:3">
@@ -7001,10 +7001,10 @@
         <v>601</v>
       </c>
       <c r="B603" t="n">
-        <v>46096.04242650689</v>
+        <v>42223.52895304911</v>
       </c>
       <c r="C603" t="n">
-        <v>3033.881073281059</v>
+        <v>10246.81232500244</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -7012,10 +7012,10 @@
         <v>602</v>
       </c>
       <c r="B604" t="n">
-        <v>46096.04242650689</v>
+        <v>42223.52895304911</v>
       </c>
       <c r="C604" t="n">
-        <v>3033.881073281059</v>
+        <v>10246.81232500244</v>
       </c>
     </row>
     <row r="605" spans="1:3">
@@ -7023,10 +7023,10 @@
         <v>603</v>
       </c>
       <c r="B605" t="n">
-        <v>41293.13192496059</v>
+        <v>47302.07599039721</v>
       </c>
       <c r="C605" t="n">
-        <v>2985.257993528486</v>
+        <v>6740.892952048759</v>
       </c>
     </row>
     <row r="606" spans="1:3">
@@ -7034,10 +7034,10 @@
         <v>604</v>
       </c>
       <c r="B606" t="n">
-        <v>41293.13192496059</v>
+        <v>47302.07599039721</v>
       </c>
       <c r="C606" t="n">
-        <v>2985.257993528486</v>
+        <v>6740.892952048759</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -7045,10 +7045,10 @@
         <v>605</v>
       </c>
       <c r="B607" t="n">
-        <v>41293.13192496059</v>
+        <v>47302.07599039721</v>
       </c>
       <c r="C607" t="n">
-        <v>2985.257993528486</v>
+        <v>6740.892952048759</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -7056,10 +7056,10 @@
         <v>606</v>
       </c>
       <c r="B608" t="n">
-        <v>41293.13192496059</v>
+        <v>47302.07599039721</v>
       </c>
       <c r="C608" t="n">
-        <v>2985.257993528486</v>
+        <v>6740.892952048759</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -7067,10 +7067,10 @@
         <v>607</v>
       </c>
       <c r="B609" t="n">
-        <v>41293.13192496059</v>
+        <v>47302.07599039721</v>
       </c>
       <c r="C609" t="n">
-        <v>2985.257993528486</v>
+        <v>6740.892952048759</v>
       </c>
     </row>
     <row r="610" spans="1:3">
@@ -7078,10 +7078,10 @@
         <v>608</v>
       </c>
       <c r="B610" t="n">
-        <v>41293.13192496059</v>
+        <v>47302.07599039721</v>
       </c>
       <c r="C610" t="n">
-        <v>2985.257993528486</v>
+        <v>6740.892952048759</v>
       </c>
     </row>
     <row r="611" spans="1:3">
@@ -7089,10 +7089,10 @@
         <v>609</v>
       </c>
       <c r="B611" t="n">
-        <v>41293.13192496059</v>
+        <v>47302.07599039721</v>
       </c>
       <c r="C611" t="n">
-        <v>2985.257993528486</v>
+        <v>6740.892952048759</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -7100,10 +7100,10 @@
         <v>610</v>
       </c>
       <c r="B612" t="n">
-        <v>37747.2203700014</v>
+        <v>42644.96151342478</v>
       </c>
       <c r="C612" t="n">
-        <v>2468.838283251908</v>
+        <v>4775.511221990776</v>
       </c>
     </row>
     <row r="613" spans="1:3">
@@ -7111,10 +7111,10 @@
         <v>611</v>
       </c>
       <c r="B613" t="n">
-        <v>37747.2203700014</v>
+        <v>42644.96151342478</v>
       </c>
       <c r="C613" t="n">
-        <v>2468.838283251908</v>
+        <v>4775.511221990776</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -7122,10 +7122,10 @@
         <v>612</v>
       </c>
       <c r="B614" t="n">
-        <v>37747.2203700014</v>
+        <v>42644.96151342478</v>
       </c>
       <c r="C614" t="n">
-        <v>2468.838283251908</v>
+        <v>4775.511221990776</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -7133,10 +7133,10 @@
         <v>613</v>
       </c>
       <c r="B615" t="n">
-        <v>37747.2203700014</v>
+        <v>42644.96151342478</v>
       </c>
       <c r="C615" t="n">
-        <v>2468.838283251908</v>
+        <v>4775.511221990776</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -7144,10 +7144,10 @@
         <v>614</v>
       </c>
       <c r="B616" t="n">
-        <v>37747.2203700014</v>
+        <v>42644.96151342478</v>
       </c>
       <c r="C616" t="n">
-        <v>2468.838283251908</v>
+        <v>4775.511221990776</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -7155,10 +7155,10 @@
         <v>615</v>
       </c>
       <c r="B617" t="n">
-        <v>37747.2203700014</v>
+        <v>42644.96151342478</v>
       </c>
       <c r="C617" t="n">
-        <v>2468.838283251908</v>
+        <v>4775.511221990776</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -7166,10 +7166,10 @@
         <v>616</v>
       </c>
       <c r="B618" t="n">
-        <v>37747.2203700014</v>
+        <v>42644.96151342478</v>
       </c>
       <c r="C618" t="n">
-        <v>2468.838283251908</v>
+        <v>4775.511221990776</v>
       </c>
     </row>
     <row r="619" spans="1:3">
@@ -7177,10 +7177,10 @@
         <v>617</v>
       </c>
       <c r="B619" t="n">
-        <v>37624.05415766522</v>
+        <v>41434.06162769966</v>
       </c>
       <c r="C619" t="n">
-        <v>865.2961427723321</v>
+        <v>3987.468410398356</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -7188,10 +7188,10 @@
         <v>618</v>
       </c>
       <c r="B620" t="n">
-        <v>37624.05415766522</v>
+        <v>41434.06162769966</v>
       </c>
       <c r="C620" t="n">
-        <v>865.2961427723321</v>
+        <v>3987.468410398356</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -7199,10 +7199,10 @@
         <v>619</v>
       </c>
       <c r="B621" t="n">
-        <v>37624.05415766522</v>
+        <v>41434.06162769966</v>
       </c>
       <c r="C621" t="n">
-        <v>865.2961427723321</v>
+        <v>3987.468410398356</v>
       </c>
     </row>
     <row r="622" spans="1:3">
@@ -7210,10 +7210,10 @@
         <v>620</v>
       </c>
       <c r="B622" t="n">
-        <v>37624.05415766522</v>
+        <v>41434.06162769966</v>
       </c>
       <c r="C622" t="n">
-        <v>865.2961427723321</v>
+        <v>3987.468410398356</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -7221,10 +7221,10 @@
         <v>621</v>
       </c>
       <c r="B623" t="n">
-        <v>37624.05415766522</v>
+        <v>41434.06162769966</v>
       </c>
       <c r="C623" t="n">
-        <v>865.2961427723321</v>
+        <v>3987.468410398356</v>
       </c>
     </row>
     <row r="624" spans="1:3">
@@ -7232,10 +7232,10 @@
         <v>622</v>
       </c>
       <c r="B624" t="n">
-        <v>37624.05415766522</v>
+        <v>41434.06162769966</v>
       </c>
       <c r="C624" t="n">
-        <v>865.2961427723321</v>
+        <v>3987.468410398356</v>
       </c>
     </row>
     <row r="625" spans="1:3">
@@ -7243,10 +7243,10 @@
         <v>623</v>
       </c>
       <c r="B625" t="n">
-        <v>37624.05415766522</v>
+        <v>41434.06162769966</v>
       </c>
       <c r="C625" t="n">
-        <v>865.2961427723321</v>
+        <v>3987.468410398356</v>
       </c>
     </row>
     <row r="626" spans="1:3">
@@ -7254,10 +7254,10 @@
         <v>624</v>
       </c>
       <c r="B626" t="n">
-        <v>35350.31734611497</v>
+        <v>39813.87061100303</v>
       </c>
       <c r="C626" t="n">
-        <v>700.5100167876689</v>
+        <v>4209.693881346191</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -7265,10 +7265,10 @@
         <v>625</v>
       </c>
       <c r="B627" t="n">
-        <v>35350.31734611497</v>
+        <v>39813.87061100303</v>
       </c>
       <c r="C627" t="n">
-        <v>700.5100167876689</v>
+        <v>4209.693881346191</v>
       </c>
     </row>
     <row r="628" spans="1:3">
@@ -7276,10 +7276,10 @@
         <v>626</v>
       </c>
       <c r="B628" t="n">
-        <v>35350.31734611497</v>
+        <v>39813.87061100303</v>
       </c>
       <c r="C628" t="n">
-        <v>700.5100167876689</v>
+        <v>4209.693881346191</v>
       </c>
     </row>
     <row r="629" spans="1:3">
@@ -7287,10 +7287,10 @@
         <v>627</v>
       </c>
       <c r="B629" t="n">
-        <v>35350.31734611497</v>
+        <v>39813.87061100303</v>
       </c>
       <c r="C629" t="n">
-        <v>700.5100167876689</v>
+        <v>4209.693881346191</v>
       </c>
     </row>
     <row r="630" spans="1:3">
@@ -7298,10 +7298,10 @@
         <v>628</v>
       </c>
       <c r="B630" t="n">
-        <v>35350.31734611497</v>
+        <v>39813.87061100303</v>
       </c>
       <c r="C630" t="n">
-        <v>700.5100167876689</v>
+        <v>4209.693881346191</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -7309,10 +7309,10 @@
         <v>629</v>
       </c>
       <c r="B631" t="n">
-        <v>35350.31734611497</v>
+        <v>39813.87061100303</v>
       </c>
       <c r="C631" t="n">
-        <v>700.5100167876689</v>
+        <v>4209.693881346191</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -7320,10 +7320,10 @@
         <v>630</v>
       </c>
       <c r="B632" t="n">
-        <v>35350.31734611497</v>
+        <v>39813.87061100303</v>
       </c>
       <c r="C632" t="n">
-        <v>700.5100167876689</v>
+        <v>4209.693881346191</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -7331,10 +7331,10 @@
         <v>631</v>
       </c>
       <c r="B633" t="n">
-        <v>33908.71003690438</v>
+        <v>44164.53706528583</v>
       </c>
       <c r="C633" t="n">
-        <v>770.1603200233149</v>
+        <v>4287.148560186887</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -7342,10 +7342,10 @@
         <v>632</v>
       </c>
       <c r="B634" t="n">
-        <v>33908.71003690438</v>
+        <v>44164.53706528583</v>
       </c>
       <c r="C634" t="n">
-        <v>770.1603200233149</v>
+        <v>4287.148560186887</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -7353,10 +7353,10 @@
         <v>633</v>
       </c>
       <c r="B635" t="n">
-        <v>33908.71003690438</v>
+        <v>44164.53706528583</v>
       </c>
       <c r="C635" t="n">
-        <v>770.1603200233149</v>
+        <v>4287.148560186887</v>
       </c>
     </row>
     <row r="636" spans="1:3">
@@ -7364,10 +7364,10 @@
         <v>634</v>
       </c>
       <c r="B636" t="n">
-        <v>33908.71003690438</v>
+        <v>44164.53706528583</v>
       </c>
       <c r="C636" t="n">
-        <v>770.1603200233149</v>
+        <v>4287.148560186887</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -7375,10 +7375,10 @@
         <v>635</v>
       </c>
       <c r="B637" t="n">
-        <v>33908.71003690438</v>
+        <v>44164.53706528583</v>
       </c>
       <c r="C637" t="n">
-        <v>770.1603200233149</v>
+        <v>4287.148560186887</v>
       </c>
     </row>
     <row r="638" spans="1:3">
@@ -7386,10 +7386,10 @@
         <v>636</v>
       </c>
       <c r="B638" t="n">
-        <v>33908.71003690438</v>
+        <v>44164.53706528583</v>
       </c>
       <c r="C638" t="n">
-        <v>770.1603200233149</v>
+        <v>4287.148560186887</v>
       </c>
     </row>
     <row r="639" spans="1:3">
@@ -7397,10 +7397,10 @@
         <v>637</v>
       </c>
       <c r="B639" t="n">
-        <v>33908.71003690438</v>
+        <v>44164.53706528583</v>
       </c>
       <c r="C639" t="n">
-        <v>770.1603200233149</v>
+        <v>4287.148560186887</v>
       </c>
     </row>
     <row r="640" spans="1:3">
@@ -7408,10 +7408,10 @@
         <v>638</v>
       </c>
       <c r="B640" t="n">
-        <v>32583.58481294193</v>
+        <v>45182.87324443746</v>
       </c>
       <c r="C640" t="n">
-        <v>971.0809524522431</v>
+        <v>5306.564918952589</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -7419,10 +7419,10 @@
         <v>639</v>
       </c>
       <c r="B641" t="n">
-        <v>32583.58481294193</v>
+        <v>45182.87324443746</v>
       </c>
       <c r="C641" t="n">
-        <v>971.0809524522431</v>
+        <v>5306.564918952589</v>
       </c>
     </row>
     <row r="642" spans="1:3">
@@ -7430,10 +7430,10 @@
         <v>640</v>
       </c>
       <c r="B642" t="n">
-        <v>32583.58481294193</v>
+        <v>45182.87324443746</v>
       </c>
       <c r="C642" t="n">
-        <v>971.0809524522431</v>
+        <v>5306.564918952589</v>
       </c>
     </row>
     <row r="643" spans="1:3">
@@ -7441,10 +7441,10 @@
         <v>641</v>
       </c>
       <c r="B643" t="n">
-        <v>32583.58481294193</v>
+        <v>45182.87324443746</v>
       </c>
       <c r="C643" t="n">
-        <v>971.0809524522431</v>
+        <v>5306.564918952589</v>
       </c>
     </row>
     <row r="644" spans="1:3">
@@ -7452,10 +7452,10 @@
         <v>642</v>
       </c>
       <c r="B644" t="n">
-        <v>32583.58481294193</v>
+        <v>45182.87324443746</v>
       </c>
       <c r="C644" t="n">
-        <v>971.0809524522431</v>
+        <v>5306.564918952589</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -7463,10 +7463,10 @@
         <v>643</v>
       </c>
       <c r="B645" t="n">
-        <v>32583.58481294193</v>
+        <v>45182.87324443746</v>
       </c>
       <c r="C645" t="n">
-        <v>971.0809524522431</v>
+        <v>5306.564918952589</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -7474,10 +7474,10 @@
         <v>644</v>
       </c>
       <c r="B646" t="n">
-        <v>32583.58481294193</v>
+        <v>45182.87324443746</v>
       </c>
       <c r="C646" t="n">
-        <v>971.0809524522431</v>
+        <v>5306.564918952589</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -7485,10 +7485,10 @@
         <v>645</v>
       </c>
       <c r="B647" t="n">
-        <v>27722.2192515</v>
+        <v>46703.41582152475</v>
       </c>
       <c r="C647" t="n">
-        <v>691.5953117380567</v>
+        <v>3856.08733562338</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -7496,10 +7496,10 @@
         <v>646</v>
       </c>
       <c r="B648" t="n">
-        <v>27722.2192515</v>
+        <v>46703.41582152475</v>
       </c>
       <c r="C648" t="n">
-        <v>691.5953117380567</v>
+        <v>3856.08733562338</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -7507,10 +7507,10 @@
         <v>647</v>
       </c>
       <c r="B649" t="n">
-        <v>27722.2192515</v>
+        <v>46703.41582152475</v>
       </c>
       <c r="C649" t="n">
-        <v>691.5953117380567</v>
+        <v>3856.08733562338</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -7518,10 +7518,10 @@
         <v>648</v>
       </c>
       <c r="B650" t="n">
-        <v>27722.2192515</v>
+        <v>46703.41582152475</v>
       </c>
       <c r="C650" t="n">
-        <v>691.5953117380567</v>
+        <v>3856.08733562338</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -7529,10 +7529,10 @@
         <v>649</v>
       </c>
       <c r="B651" t="n">
-        <v>27722.2192515</v>
+        <v>46703.41582152475</v>
       </c>
       <c r="C651" t="n">
-        <v>691.5953117380567</v>
+        <v>3856.08733562338</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -7540,10 +7540,10 @@
         <v>650</v>
       </c>
       <c r="B652" t="n">
-        <v>27722.2192515</v>
+        <v>46703.41582152475</v>
       </c>
       <c r="C652" t="n">
-        <v>691.5953117380567</v>
+        <v>3856.08733562338</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -7551,10 +7551,10 @@
         <v>651</v>
       </c>
       <c r="B653" t="n">
-        <v>27722.2192515</v>
+        <v>46703.41582152475</v>
       </c>
       <c r="C653" t="n">
-        <v>691.5953117380567</v>
+        <v>3856.08733562338</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -7562,10 +7562,10 @@
         <v>652</v>
       </c>
       <c r="B654" t="n">
-        <v>26772.88116095328</v>
+        <v>39860.21438063636</v>
       </c>
       <c r="C654" t="n">
-        <v>741.7961577886038</v>
+        <v>3478.779558966467</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -7573,10 +7573,10 @@
         <v>653</v>
       </c>
       <c r="B655" t="n">
-        <v>26772.88116095328</v>
+        <v>39860.21438063636</v>
       </c>
       <c r="C655" t="n">
-        <v>741.7961577886038</v>
+        <v>3478.779558966467</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -7584,10 +7584,10 @@
         <v>654</v>
       </c>
       <c r="B656" t="n">
-        <v>26772.88116095328</v>
+        <v>39860.21438063636</v>
       </c>
       <c r="C656" t="n">
-        <v>741.7961577886038</v>
+        <v>3478.779558966467</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -7595,10 +7595,10 @@
         <v>655</v>
       </c>
       <c r="B657" t="n">
-        <v>26772.88116095328</v>
+        <v>39860.21438063636</v>
       </c>
       <c r="C657" t="n">
-        <v>741.7961577886038</v>
+        <v>3478.779558966467</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -7606,10 +7606,10 @@
         <v>656</v>
       </c>
       <c r="B658" t="n">
-        <v>26772.88116095328</v>
+        <v>39860.21438063636</v>
       </c>
       <c r="C658" t="n">
-        <v>741.7961577886038</v>
+        <v>3478.779558966467</v>
       </c>
     </row>
     <row r="659" spans="1:3">
@@ -7617,10 +7617,10 @@
         <v>657</v>
       </c>
       <c r="B659" t="n">
-        <v>26772.88116095328</v>
+        <v>39860.21438063636</v>
       </c>
       <c r="C659" t="n">
-        <v>741.7961577886038</v>
+        <v>3478.779558966467</v>
       </c>
     </row>
     <row r="660" spans="1:3">
@@ -7628,10 +7628,10 @@
         <v>658</v>
       </c>
       <c r="B660" t="n">
-        <v>26772.88116095328</v>
+        <v>39860.21438063636</v>
       </c>
       <c r="C660" t="n">
-        <v>741.7961577886038</v>
+        <v>3478.779558966467</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -7639,10 +7639,10 @@
         <v>659</v>
       </c>
       <c r="B661" t="n">
-        <v>23865.20876128893</v>
+        <v>43859.78652497767</v>
       </c>
       <c r="C661" t="n">
-        <v>688.1624877234811</v>
+        <v>7302.134197613328</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -7650,10 +7650,10 @@
         <v>660</v>
       </c>
       <c r="B662" t="n">
-        <v>23865.20876128893</v>
+        <v>43859.78652497767</v>
       </c>
       <c r="C662" t="n">
-        <v>688.1624877234811</v>
+        <v>7302.134197613328</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -7661,10 +7661,10 @@
         <v>661</v>
       </c>
       <c r="B663" t="n">
-        <v>23865.20876128893</v>
+        <v>43859.78652497767</v>
       </c>
       <c r="C663" t="n">
-        <v>688.1624877234811</v>
+        <v>7302.134197613328</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -7672,10 +7672,10 @@
         <v>662</v>
       </c>
       <c r="B664" t="n">
-        <v>23865.20876128893</v>
+        <v>43859.78652497767</v>
       </c>
       <c r="C664" t="n">
-        <v>688.1624877234811</v>
+        <v>7302.134197613328</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -7683,10 +7683,10 @@
         <v>663</v>
       </c>
       <c r="B665" t="n">
-        <v>23865.20876128893</v>
+        <v>43859.78652497767</v>
       </c>
       <c r="C665" t="n">
-        <v>688.1624877234811</v>
+        <v>7302.134197613328</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -7694,10 +7694,10 @@
         <v>664</v>
       </c>
       <c r="B666" t="n">
-        <v>23865.20876128893</v>
+        <v>43859.78652497767</v>
       </c>
       <c r="C666" t="n">
-        <v>688.1624877234811</v>
+        <v>7302.134197613328</v>
       </c>
     </row>
     <row r="667" spans="1:3">
@@ -7705,10 +7705,10 @@
         <v>665</v>
       </c>
       <c r="B667" t="n">
-        <v>23865.20876128893</v>
+        <v>43859.78652497767</v>
       </c>
       <c r="C667" t="n">
-        <v>688.1624877234811</v>
+        <v>7302.134197613328</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -7716,10 +7716,10 @@
         <v>666</v>
       </c>
       <c r="B668" t="n">
-        <v>24421.93023713168</v>
+        <v>51905.34006875286</v>
       </c>
       <c r="C668" t="n">
-        <v>1128.721722612638</v>
+        <v>7980.844239878218</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -7727,10 +7727,10 @@
         <v>667</v>
       </c>
       <c r="B669" t="n">
-        <v>24421.93023713168</v>
+        <v>51905.34006875286</v>
       </c>
       <c r="C669" t="n">
-        <v>1128.721722612638</v>
+        <v>7980.844239878218</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -7738,10 +7738,10 @@
         <v>668</v>
       </c>
       <c r="B670" t="n">
-        <v>24421.93023713168</v>
+        <v>51905.34006875286</v>
       </c>
       <c r="C670" t="n">
-        <v>1128.721722612638</v>
+        <v>7980.844239878218</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -7749,10 +7749,10 @@
         <v>669</v>
       </c>
       <c r="B671" t="n">
-        <v>24421.93023713168</v>
+        <v>51905.34006875286</v>
       </c>
       <c r="C671" t="n">
-        <v>1128.721722612638</v>
+        <v>7980.844239878218</v>
       </c>
     </row>
     <row r="672" spans="1:3">
@@ -7760,10 +7760,10 @@
         <v>670</v>
       </c>
       <c r="B672" t="n">
-        <v>24421.93023713168</v>
+        <v>51905.34006875286</v>
       </c>
       <c r="C672" t="n">
-        <v>1128.721722612638</v>
+        <v>7980.844239878218</v>
       </c>
     </row>
     <row r="673" spans="1:3">
@@ -7771,10 +7771,10 @@
         <v>671</v>
       </c>
       <c r="B673" t="n">
-        <v>24421.93023713168</v>
+        <v>51905.34006875286</v>
       </c>
       <c r="C673" t="n">
-        <v>1128.721722612638</v>
+        <v>7980.844239878218</v>
       </c>
     </row>
     <row r="674" spans="1:3">
@@ -7782,10 +7782,10 @@
         <v>672</v>
       </c>
       <c r="B674" t="n">
-        <v>24421.93023713168</v>
+        <v>51905.34006875286</v>
       </c>
       <c r="C674" t="n">
-        <v>1128.721722612638</v>
+        <v>7980.844239878218</v>
       </c>
     </row>
     <row r="675" spans="1:3">
@@ -7793,10 +7793,10 @@
         <v>673</v>
       </c>
       <c r="B675" t="n">
-        <v>29764.6262308893</v>
+        <v>58809.92821681102</v>
       </c>
       <c r="C675" t="n">
-        <v>2359.527030803999</v>
+        <v>4882.041358990094</v>
       </c>
     </row>
     <row r="676" spans="1:3">
@@ -7804,10 +7804,10 @@
         <v>674</v>
       </c>
       <c r="B676" t="n">
-        <v>29764.6262308893</v>
+        <v>58809.92821681102</v>
       </c>
       <c r="C676" t="n">
-        <v>2359.527030803999</v>
+        <v>4882.041358990094</v>
       </c>
     </row>
     <row r="677" spans="1:3">
@@ -7815,10 +7815,10 @@
         <v>675</v>
       </c>
       <c r="B677" t="n">
-        <v>29764.6262308893</v>
+        <v>58809.92821681102</v>
       </c>
       <c r="C677" t="n">
-        <v>2359.527030803999</v>
+        <v>4882.041358990094</v>
       </c>
     </row>
     <row r="678" spans="1:3">
@@ -7826,10 +7826,10 @@
         <v>676</v>
       </c>
       <c r="B678" t="n">
-        <v>29764.6262308893</v>
+        <v>58809.92821681102</v>
       </c>
       <c r="C678" t="n">
-        <v>2359.527030803999</v>
+        <v>4882.041358990094</v>
       </c>
     </row>
     <row r="679" spans="1:3">
@@ -7837,10 +7837,10 @@
         <v>677</v>
       </c>
       <c r="B679" t="n">
-        <v>29764.6262308893</v>
+        <v>58809.92821681102</v>
       </c>
       <c r="C679" t="n">
-        <v>2359.527030803999</v>
+        <v>4882.041358990094</v>
       </c>
     </row>
     <row r="680" spans="1:3">
@@ -7848,10 +7848,10 @@
         <v>678</v>
       </c>
       <c r="B680" t="n">
-        <v>29764.6262308893</v>
+        <v>58809.92821681102</v>
       </c>
       <c r="C680" t="n">
-        <v>2359.527030803999</v>
+        <v>4882.041358990094</v>
       </c>
     </row>
     <row r="681" spans="1:3">
@@ -7859,10 +7859,10 @@
         <v>679</v>
       </c>
       <c r="B681" t="n">
-        <v>29764.6262308893</v>
+        <v>58809.92821681102</v>
       </c>
       <c r="C681" t="n">
-        <v>2359.527030803999</v>
+        <v>4882.041358990094</v>
       </c>
     </row>
     <row r="682" spans="1:3">
@@ -7870,10 +7870,10 @@
         <v>680</v>
       </c>
       <c r="B682" t="n">
-        <v>29027.8767644777</v>
+        <v>58154.24019637774</v>
       </c>
       <c r="C682" t="n">
-        <v>1257.193160245836</v>
+        <v>5157.815844823322</v>
       </c>
     </row>
     <row r="683" spans="1:3">
@@ -7881,10 +7881,10 @@
         <v>681</v>
       </c>
       <c r="B683" t="n">
-        <v>29027.8767644777</v>
+        <v>58154.24019637774</v>
       </c>
       <c r="C683" t="n">
-        <v>1257.193160245836</v>
+        <v>5157.815844823322</v>
       </c>
     </row>
     <row r="684" spans="1:3">
@@ -7892,10 +7892,10 @@
         <v>682</v>
       </c>
       <c r="B684" t="n">
-        <v>29027.8767644777</v>
+        <v>58154.24019637774</v>
       </c>
       <c r="C684" t="n">
-        <v>1257.193160245836</v>
+        <v>5157.815844823322</v>
       </c>
     </row>
     <row r="685" spans="1:3">
@@ -7903,10 +7903,10 @@
         <v>683</v>
       </c>
       <c r="B685" t="n">
-        <v>29027.8767644777</v>
+        <v>58154.24019637774</v>
       </c>
       <c r="C685" t="n">
-        <v>1257.193160245836</v>
+        <v>5157.815844823322</v>
       </c>
     </row>
     <row r="686" spans="1:3">
@@ -7914,10 +7914,10 @@
         <v>684</v>
       </c>
       <c r="B686" t="n">
-        <v>29027.8767644777</v>
+        <v>58154.24019637774</v>
       </c>
       <c r="C686" t="n">
-        <v>1257.193160245836</v>
+        <v>5157.815844823322</v>
       </c>
     </row>
     <row r="687" spans="1:3">
@@ -7925,10 +7925,10 @@
         <v>685</v>
       </c>
       <c r="B687" t="n">
-        <v>29027.8767644777</v>
+        <v>58154.24019637774</v>
       </c>
       <c r="C687" t="n">
-        <v>1257.193160245836</v>
+        <v>5157.815844823322</v>
       </c>
     </row>
     <row r="688" spans="1:3">
@@ -7936,10 +7936,10 @@
         <v>686</v>
       </c>
       <c r="B688" t="n">
-        <v>29027.8767644777</v>
+        <v>58154.24019637774</v>
       </c>
       <c r="C688" t="n">
-        <v>1257.193160245836</v>
+        <v>5157.815844823322</v>
       </c>
     </row>
     <row r="689" spans="1:3">
@@ -7947,10 +7947,10 @@
         <v>687</v>
       </c>
       <c r="B689" t="n">
-        <v>46654.34556213755</v>
+        <v>78235.4767081117</v>
       </c>
       <c r="C689" t="n">
-        <v>1464.953656850922</v>
+        <v>6531.507502962619</v>
       </c>
     </row>
     <row r="690" spans="1:3">
@@ -7958,10 +7958,10 @@
         <v>688</v>
       </c>
       <c r="B690" t="n">
-        <v>46654.34556213755</v>
+        <v>78235.4767081117</v>
       </c>
       <c r="C690" t="n">
-        <v>1464.953656850922</v>
+        <v>6531.507502962619</v>
       </c>
     </row>
     <row r="691" spans="1:3">
@@ -7969,10 +7969,10 @@
         <v>689</v>
       </c>
       <c r="B691" t="n">
-        <v>46654.34556213755</v>
+        <v>78235.4767081117</v>
       </c>
       <c r="C691" t="n">
-        <v>1464.953656850922</v>
+        <v>6531.507502962619</v>
       </c>
     </row>
     <row r="692" spans="1:3">
@@ -7980,10 +7980,10 @@
         <v>690</v>
       </c>
       <c r="B692" t="n">
-        <v>46654.34556213755</v>
+        <v>78235.4767081117</v>
       </c>
       <c r="C692" t="n">
-        <v>1464.953656850922</v>
+        <v>6531.507502962619</v>
       </c>
     </row>
     <row r="693" spans="1:3">
@@ -7991,10 +7991,10 @@
         <v>691</v>
       </c>
       <c r="B693" t="n">
-        <v>46654.34556213755</v>
+        <v>78235.4767081117</v>
       </c>
       <c r="C693" t="n">
-        <v>1464.953656850922</v>
+        <v>6531.507502962619</v>
       </c>
     </row>
     <row r="694" spans="1:3">
@@ -8002,10 +8002,10 @@
         <v>692</v>
       </c>
       <c r="B694" t="n">
-        <v>46654.34556213755</v>
+        <v>78235.4767081117</v>
       </c>
       <c r="C694" t="n">
-        <v>1464.953656850922</v>
+        <v>6531.507502962619</v>
       </c>
     </row>
     <row r="695" spans="1:3">
@@ -8013,10 +8013,10 @@
         <v>693</v>
       </c>
       <c r="B695" t="n">
-        <v>46654.34556213755</v>
+        <v>78235.4767081117</v>
       </c>
       <c r="C695" t="n">
-        <v>1464.953656850922</v>
+        <v>6531.507502962619</v>
       </c>
     </row>
     <row r="696" spans="1:3">
@@ -8024,10 +8024,10 @@
         <v>694</v>
       </c>
       <c r="B696" t="n">
-        <v>54604.64921780042</v>
+        <v>72581.37675989032</v>
       </c>
       <c r="C696" t="n">
-        <v>1698.359719310847</v>
+        <v>4732.844386477608</v>
       </c>
     </row>
     <row r="697" spans="1:3">
@@ -8035,10 +8035,10 @@
         <v>695</v>
       </c>
       <c r="B697" t="n">
-        <v>54604.64921780042</v>
+        <v>72581.37675989032</v>
       </c>
       <c r="C697" t="n">
-        <v>1698.359719310847</v>
+        <v>4732.844386477608</v>
       </c>
     </row>
     <row r="698" spans="1:3">
@@ -8046,10 +8046,10 @@
         <v>696</v>
       </c>
       <c r="B698" t="n">
-        <v>54604.64921780042</v>
+        <v>72581.37675989032</v>
       </c>
       <c r="C698" t="n">
-        <v>1698.359719310847</v>
+        <v>4732.844386477608</v>
       </c>
     </row>
     <row r="699" spans="1:3">
@@ -8057,10 +8057,10 @@
         <v>697</v>
       </c>
       <c r="B699" t="n">
-        <v>54604.64921780042</v>
+        <v>72581.37675989032</v>
       </c>
       <c r="C699" t="n">
-        <v>1698.359719310847</v>
+        <v>4732.844386477608</v>
       </c>
     </row>
     <row r="700" spans="1:3">
@@ -8068,10 +8068,10 @@
         <v>698</v>
       </c>
       <c r="B700" t="n">
-        <v>54604.64921780042</v>
+        <v>72581.37675989032</v>
       </c>
       <c r="C700" t="n">
-        <v>1698.359719310847</v>
+        <v>4732.844386477608</v>
       </c>
     </row>
     <row r="701" spans="1:3">
@@ -8079,10 +8079,10 @@
         <v>699</v>
       </c>
       <c r="B701" t="n">
-        <v>54604.64921780042</v>
+        <v>72581.37675989032</v>
       </c>
       <c r="C701" t="n">
-        <v>1698.359719310847</v>
+        <v>4732.844386477608</v>
       </c>
     </row>
     <row r="702" spans="1:3">
@@ -8090,10 +8090,10 @@
         <v>700</v>
       </c>
       <c r="B702" t="n">
-        <v>54604.64921780042</v>
+        <v>72581.37675989032</v>
       </c>
       <c r="C702" t="n">
-        <v>1698.359719310847</v>
+        <v>4732.844386477608</v>
       </c>
     </row>
     <row r="703" spans="1:3">
@@ -8101,10 +8101,10 @@
         <v>701</v>
       </c>
       <c r="B703" t="n">
-        <v>48729.43711003754</v>
+        <v>61889.44695321772</v>
       </c>
       <c r="C703" t="n">
-        <v>1581.133989480433</v>
+        <v>2645.839320494782</v>
       </c>
     </row>
     <row r="704" spans="1:3">
@@ -8112,10 +8112,10 @@
         <v>702</v>
       </c>
       <c r="B704" t="n">
-        <v>48729.43711003754</v>
+        <v>61889.44695321772</v>
       </c>
       <c r="C704" t="n">
-        <v>1581.133989480433</v>
+        <v>2645.839320494782</v>
       </c>
     </row>
     <row r="705" spans="1:3">
@@ -8123,10 +8123,10 @@
         <v>703</v>
       </c>
       <c r="B705" t="n">
-        <v>48729.43711003754</v>
+        <v>61889.44695321772</v>
       </c>
       <c r="C705" t="n">
-        <v>1581.133989480433</v>
+        <v>2645.839320494782</v>
       </c>
     </row>
     <row r="706" spans="1:3">
@@ -8134,10 +8134,10 @@
         <v>704</v>
       </c>
       <c r="B706" t="n">
-        <v>48729.43711003754</v>
+        <v>61889.44695321772</v>
       </c>
       <c r="C706" t="n">
-        <v>1581.133989480433</v>
+        <v>2645.839320494782</v>
       </c>
     </row>
     <row r="707" spans="1:3">
@@ -8145,10 +8145,10 @@
         <v>705</v>
       </c>
       <c r="B707" t="n">
-        <v>48729.43711003754</v>
+        <v>61889.44695321772</v>
       </c>
       <c r="C707" t="n">
-        <v>1581.133989480433</v>
+        <v>2645.839320494782</v>
       </c>
     </row>
     <row r="708" spans="1:3">
@@ -8156,10 +8156,10 @@
         <v>706</v>
       </c>
       <c r="B708" t="n">
-        <v>48729.43711003754</v>
+        <v>61889.44695321772</v>
       </c>
       <c r="C708" t="n">
-        <v>1581.133989480433</v>
+        <v>2645.839320494782</v>
       </c>
     </row>
     <row r="709" spans="1:3">
@@ -8167,10 +8167,10 @@
         <v>707</v>
       </c>
       <c r="B709" t="n">
-        <v>48729.43711003754</v>
+        <v>61889.44695321772</v>
       </c>
       <c r="C709" t="n">
-        <v>1581.133989480433</v>
+        <v>2645.839320494782</v>
       </c>
     </row>
     <row r="710" spans="1:3">
@@ -8178,10 +8178,10 @@
         <v>708</v>
       </c>
       <c r="B710" t="n">
-        <v>45479.5747922824</v>
+        <v>79832.24703419708</v>
       </c>
       <c r="C710" t="n">
-        <v>2047.546934621414</v>
+        <v>2833.755247248911</v>
       </c>
     </row>
     <row r="711" spans="1:3">
@@ -8189,10 +8189,10 @@
         <v>709</v>
       </c>
       <c r="B711" t="n">
-        <v>45479.5747922824</v>
+        <v>79832.24703419708</v>
       </c>
       <c r="C711" t="n">
-        <v>2047.546934621414</v>
+        <v>2833.755247248911</v>
       </c>
     </row>
     <row r="712" spans="1:3">
@@ -8200,10 +8200,10 @@
         <v>710</v>
       </c>
       <c r="B712" t="n">
-        <v>45479.5747922824</v>
+        <v>79832.24703419708</v>
       </c>
       <c r="C712" t="n">
-        <v>2047.546934621414</v>
+        <v>2833.755247248911</v>
       </c>
     </row>
     <row r="713" spans="1:3">
@@ -8211,10 +8211,10 @@
         <v>711</v>
       </c>
       <c r="B713" t="n">
-        <v>45479.5747922824</v>
+        <v>79832.24703419708</v>
       </c>
       <c r="C713" t="n">
-        <v>2047.546934621414</v>
+        <v>2833.755247248911</v>
       </c>
     </row>
     <row r="714" spans="1:3">
@@ -8222,10 +8222,10 @@
         <v>712</v>
       </c>
       <c r="B714" t="n">
-        <v>45479.5747922824</v>
+        <v>79832.24703419708</v>
       </c>
       <c r="C714" t="n">
-        <v>2047.546934621414</v>
+        <v>2833.755247248911</v>
       </c>
     </row>
     <row r="715" spans="1:3">
@@ -8233,10 +8233,10 @@
         <v>713</v>
       </c>
       <c r="B715" t="n">
-        <v>45479.5747922824</v>
+        <v>79832.24703419708</v>
       </c>
       <c r="C715" t="n">
-        <v>2047.546934621414</v>
+        <v>2833.755247248911</v>
       </c>
     </row>
     <row r="716" spans="1:3">
@@ -8244,10 +8244,10 @@
         <v>714</v>
       </c>
       <c r="B716" t="n">
-        <v>45479.5747922824</v>
+        <v>79832.24703419708</v>
       </c>
       <c r="C716" t="n">
-        <v>2047.546934621414</v>
+        <v>2833.755247248911</v>
       </c>
     </row>
     <row r="717" spans="1:3">
@@ -8255,10 +8255,10 @@
         <v>715</v>
       </c>
       <c r="B717" t="n">
-        <v>48994.17723214145</v>
+        <v>58173.89227219723</v>
       </c>
       <c r="C717" t="n">
-        <v>6328.797228429733</v>
+        <v>8230.264473545873</v>
       </c>
     </row>
     <row r="718" spans="1:3">
@@ -8266,10 +8266,10 @@
         <v>716</v>
       </c>
       <c r="B718" t="n">
-        <v>48994.17723214145</v>
+        <v>58173.89227219723</v>
       </c>
       <c r="C718" t="n">
-        <v>6328.797228429733</v>
+        <v>8230.264473545873</v>
       </c>
     </row>
     <row r="719" spans="1:3">
@@ -8277,10 +8277,10 @@
         <v>717</v>
       </c>
       <c r="B719" t="n">
-        <v>48994.17723214145</v>
+        <v>58173.89227219723</v>
       </c>
       <c r="C719" t="n">
-        <v>6328.797228429733</v>
+        <v>8230.264473545873</v>
       </c>
     </row>
     <row r="720" spans="1:3">
@@ -8288,10 +8288,10 @@
         <v>718</v>
       </c>
       <c r="B720" t="n">
-        <v>48994.17723214145</v>
+        <v>58173.89227219723</v>
       </c>
       <c r="C720" t="n">
-        <v>6328.797228429733</v>
+        <v>8230.264473545873</v>
       </c>
     </row>
     <row r="721" spans="1:3">
@@ -8299,10 +8299,10 @@
         <v>719</v>
       </c>
       <c r="B721" t="n">
-        <v>48994.17723214145</v>
+        <v>58173.89227219723</v>
       </c>
       <c r="C721" t="n">
-        <v>6328.797228429733</v>
+        <v>8230.264473545873</v>
       </c>
     </row>
     <row r="722" spans="1:3">
@@ -8310,10 +8310,10 @@
         <v>720</v>
       </c>
       <c r="B722" t="n">
-        <v>48994.17723214145</v>
+        <v>58173.89227219723</v>
       </c>
       <c r="C722" t="n">
-        <v>6328.797228429733</v>
+        <v>8230.264473545873</v>
       </c>
     </row>
     <row r="723" spans="1:3">
@@ -8321,10 +8321,10 @@
         <v>721</v>
       </c>
       <c r="B723" t="n">
-        <v>48994.17723214145</v>
+        <v>58173.89227219723</v>
       </c>
       <c r="C723" t="n">
-        <v>6328.797228429733</v>
+        <v>8230.264473545873</v>
       </c>
     </row>
     <row r="724" spans="1:3">
@@ -8332,10 +8332,10 @@
         <v>722</v>
       </c>
       <c r="B724" t="n">
-        <v>65878.6502028899</v>
+        <v>74294.37589504533</v>
       </c>
       <c r="C724" t="n">
-        <v>5333.234453115508</v>
+        <v>6852.351396092452</v>
       </c>
     </row>
     <row r="725" spans="1:3">
@@ -8343,10 +8343,10 @@
         <v>723</v>
       </c>
       <c r="B725" t="n">
-        <v>65878.6502028899</v>
+        <v>74294.37589504533</v>
       </c>
       <c r="C725" t="n">
-        <v>5333.234453115508</v>
+        <v>6852.351396092452</v>
       </c>
     </row>
     <row r="726" spans="1:3">
@@ -8354,10 +8354,10 @@
         <v>724</v>
       </c>
       <c r="B726" t="n">
-        <v>65878.6502028899</v>
+        <v>74294.37589504533</v>
       </c>
       <c r="C726" t="n">
-        <v>5333.234453115508</v>
+        <v>6852.351396092452</v>
       </c>
     </row>
     <row r="727" spans="1:3">
@@ -8365,10 +8365,10 @@
         <v>725</v>
       </c>
       <c r="B727" t="n">
-        <v>65878.6502028899</v>
+        <v>74294.37589504533</v>
       </c>
       <c r="C727" t="n">
-        <v>5333.234453115508</v>
+        <v>6852.351396092452</v>
       </c>
     </row>
     <row r="728" spans="1:3">
@@ -8376,10 +8376,10 @@
         <v>726</v>
       </c>
       <c r="B728" t="n">
-        <v>65878.6502028899</v>
+        <v>74294.37589504533</v>
       </c>
       <c r="C728" t="n">
-        <v>5333.234453115508</v>
+        <v>6852.351396092452</v>
       </c>
     </row>
     <row r="729" spans="1:3">
@@ -8387,10 +8387,10 @@
         <v>727</v>
       </c>
       <c r="B729" t="n">
-        <v>65878.6502028899</v>
+        <v>74294.37589504533</v>
       </c>
       <c r="C729" t="n">
-        <v>5333.234453115508</v>
+        <v>6852.351396092452</v>
       </c>
     </row>
     <row r="730" spans="1:3">
@@ -8398,10 +8398,10 @@
         <v>728</v>
       </c>
       <c r="B730" t="n">
-        <v>65878.6502028899</v>
+        <v>74294.37589504533</v>
       </c>
       <c r="C730" t="n">
-        <v>5333.234453115508</v>
+        <v>6852.351396092452</v>
       </c>
     </row>
     <row r="731" spans="1:3">
@@ -8409,10 +8409,10 @@
         <v>729</v>
       </c>
       <c r="B731" t="n">
-        <v>65878.6502028899</v>
+        <v>74294.37589504533</v>
       </c>
       <c r="C731" t="n">
-        <v>5333.234453115508</v>
+        <v>6852.351396092452</v>
       </c>
     </row>
   </sheetData>
